--- a/2016版培养方案教学计划表（网络编程、软件工程).xlsx
+++ b/2016版培养方案教学计划表（网络编程、软件工程).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14880" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14880"/>
   </bookViews>
   <sheets>
     <sheet name="网络编程" sheetId="1" r:id="rId1"/>
@@ -210,7 +210,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="320">
   <si>
     <t>学期</t>
   </si>
@@ -1584,6 +1584,38 @@
   </si>
   <si>
     <t>核心学分</t>
+    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
     <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
   </si>
   <si>
@@ -4870,172 +4902,196 @@
     <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="6" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="6" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="32" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="6" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="6" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5047,15 +5103,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5064,21 +5111,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="257">
@@ -5350,7 +5382,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_515" connectionId="6" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_514" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5358,7 +5390,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_514" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_515" connectionId="6" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5366,7 +5398,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_516" connectionId="4" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_513" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5374,7 +5406,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_513" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_516" connectionId="4" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5632,7 +5664,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5642,8 +5674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S100"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F76" sqref="F76"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="U66" sqref="U66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5666,53 +5698,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="21">
-      <c r="A1" s="456" t="s">
+      <c r="A1" s="410" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="456"/>
-      <c r="C1" s="456"/>
-      <c r="D1" s="456"/>
-      <c r="E1" s="456"/>
-      <c r="F1" s="456"/>
-      <c r="G1" s="456"/>
-      <c r="H1" s="456"/>
-      <c r="I1" s="456"/>
-      <c r="J1" s="456"/>
-      <c r="K1" s="456"/>
-      <c r="L1" s="456"/>
-      <c r="M1" s="456"/>
-      <c r="N1" s="456"/>
-      <c r="O1" s="456"/>
+      <c r="B1" s="410"/>
+      <c r="C1" s="410"/>
+      <c r="D1" s="410"/>
+      <c r="E1" s="410"/>
+      <c r="F1" s="410"/>
+      <c r="G1" s="410"/>
+      <c r="H1" s="410"/>
+      <c r="I1" s="410"/>
+      <c r="J1" s="410"/>
+      <c r="K1" s="410"/>
+      <c r="L1" s="410"/>
+      <c r="M1" s="410"/>
+      <c r="N1" s="410"/>
+      <c r="O1" s="410"/>
       <c r="R1"/>
       <c r="S1"/>
     </row>
     <row r="2" spans="1:19" ht="15">
-      <c r="A2" s="457" t="s">
+      <c r="A2" s="411" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="459" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="460"/>
-      <c r="D2" s="460"/>
-      <c r="E2" s="460"/>
-      <c r="F2" s="461"/>
+      <c r="B2" s="413" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="414"/>
+      <c r="D2" s="414"/>
+      <c r="E2" s="414"/>
+      <c r="F2" s="415"/>
       <c r="G2" s="248"/>
       <c r="H2" s="249"/>
       <c r="I2" s="249"/>
       <c r="J2" s="291"/>
-      <c r="K2" s="462" t="s">
+      <c r="K2" s="416" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="462"/>
-      <c r="M2" s="462"/>
-      <c r="N2" s="462"/>
-      <c r="O2" s="463"/>
+      <c r="L2" s="416"/>
+      <c r="M2" s="416"/>
+      <c r="N2" s="416"/>
+      <c r="O2" s="417"/>
       <c r="R2" s="239"/>
       <c r="S2" s="239"/>
     </row>
     <row r="3" spans="1:19" ht="16" thickBot="1">
-      <c r="A3" s="458"/>
+      <c r="A3" s="412"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -5769,7 +5801,7 @@
       </c>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="464" t="s">
+      <c r="A4" s="418" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="76">
@@ -5824,7 +5856,7 @@
       </c>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="465"/>
+      <c r="A5" s="419"/>
       <c r="B5" s="78">
         <v>310016</v>
       </c>
@@ -5869,14 +5901,14 @@
         <f>M5</f>
         <v>32</v>
       </c>
-      <c r="Q5" s="304">
-        <v>1</v>
+      <c r="Q5" s="304" t="s">
+        <v>317</v>
       </c>
       <c r="R5" s="7"/>
       <c r="S5" s="271"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="465"/>
+      <c r="A6" s="419"/>
       <c r="B6" s="86">
         <v>330001</v>
       </c>
@@ -5915,7 +5947,7 @@
       <c r="S6" s="284"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="465"/>
+      <c r="A7" s="419"/>
       <c r="B7" s="86">
         <v>199023</v>
       </c>
@@ -5954,7 +5986,7 @@
       <c r="S7" s="284"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="465"/>
+      <c r="A8" s="419"/>
       <c r="B8" s="86">
         <v>310017</v>
       </c>
@@ -5993,7 +6025,7 @@
       <c r="S8" s="284"/>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" s="465"/>
+      <c r="A9" s="419"/>
       <c r="B9" s="75">
         <v>1901000</v>
       </c>
@@ -6034,7 +6066,7 @@
       <c r="S9" s="263"/>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="465"/>
+      <c r="A10" s="419"/>
       <c r="B10" s="75">
         <v>1900101</v>
       </c>
@@ -6073,7 +6105,7 @@
       <c r="S10" s="263"/>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="465"/>
+      <c r="A11" s="419"/>
       <c r="B11" s="75"/>
       <c r="C11" s="15" t="s">
         <v>20</v>
@@ -6106,7 +6138,7 @@
       <c r="S11" s="263"/>
     </row>
     <row r="12" spans="1:19" ht="15" thickBot="1">
-      <c r="A12" s="465"/>
+      <c r="A12" s="419"/>
       <c r="B12" s="81">
         <v>1901001</v>
       </c>
@@ -6149,7 +6181,7 @@
       <c r="S12" s="263"/>
     </row>
     <row r="13" spans="1:19" ht="16">
-      <c r="A13" s="450" t="s">
+      <c r="A13" s="420" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="5">
@@ -6203,7 +6235,7 @@
       </c>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="451"/>
+      <c r="A14" s="421"/>
       <c r="B14" s="7">
         <v>310009</v>
       </c>
@@ -6257,7 +6289,7 @@
       <c r="S14" s="271"/>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="451"/>
+      <c r="A15" s="421"/>
       <c r="B15" s="7">
         <v>310013</v>
       </c>
@@ -6302,16 +6334,16 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Q15" s="304">
-        <v>1</v>
+      <c r="Q15" s="304" t="s">
+        <v>316</v>
       </c>
       <c r="R15" s="7"/>
-      <c r="S15" s="271">
-        <v>48</v>
+      <c r="S15" s="271" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="451"/>
+      <c r="A16" s="421"/>
       <c r="B16" s="126">
         <v>1900102</v>
       </c>
@@ -6354,14 +6386,14 @@
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="Q16" s="304">
-        <v>1</v>
+      <c r="Q16" s="304" t="s">
+        <v>317</v>
       </c>
       <c r="R16" s="126"/>
       <c r="S16" s="196"/>
     </row>
     <row r="17" spans="1:19">
-      <c r="A17" s="451"/>
+      <c r="A17" s="421"/>
       <c r="B17" s="280">
         <v>1901003</v>
       </c>
@@ -6407,14 +6439,14 @@
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="Q17" s="304">
-        <v>1</v>
+      <c r="Q17" s="304" t="s">
+        <v>317</v>
       </c>
       <c r="R17" s="67"/>
       <c r="S17" s="263"/>
     </row>
     <row r="18" spans="1:19">
-      <c r="A18" s="451"/>
+      <c r="A18" s="421"/>
       <c r="B18" s="272">
         <v>1905045</v>
       </c>
@@ -6469,7 +6501,7 @@
       <c r="S18" s="263"/>
     </row>
     <row r="19" spans="1:19">
-      <c r="A19" s="451"/>
+      <c r="A19" s="421"/>
       <c r="B19" s="182" t="s">
         <v>124</v>
       </c>
@@ -6520,7 +6552,7 @@
       <c r="S19" s="263"/>
     </row>
     <row r="20" spans="1:19">
-      <c r="A20" s="451"/>
+      <c r="A20" s="421"/>
       <c r="B20" s="182"/>
       <c r="C20" s="182"/>
       <c r="D20" s="183"/>
@@ -6547,7 +6579,7 @@
       <c r="S20" s="263"/>
     </row>
     <row r="21" spans="1:19" ht="15" thickBot="1">
-      <c r="A21" s="452"/>
+      <c r="A21" s="422"/>
       <c r="B21" s="23"/>
       <c r="C21" s="147" t="s">
         <v>125</v>
@@ -6593,7 +6625,7 @@
       </c>
     </row>
     <row r="22" spans="1:19">
-      <c r="A22" s="453" t="s">
+      <c r="A22" s="423" t="s">
         <v>28</v>
       </c>
       <c r="B22" s="76">
@@ -6648,7 +6680,7 @@
       <c r="S22" s="271"/>
     </row>
     <row r="23" spans="1:19">
-      <c r="A23" s="454"/>
+      <c r="A23" s="424"/>
       <c r="B23" s="78">
         <v>310015</v>
       </c>
@@ -6700,7 +6732,7 @@
       <c r="S23" s="271"/>
     </row>
     <row r="24" spans="1:19">
-      <c r="A24" s="454"/>
+      <c r="A24" s="424"/>
       <c r="B24" s="75">
         <v>1905007</v>
       </c>
@@ -6754,7 +6786,7 @@
       </c>
     </row>
     <row r="25" spans="1:19">
-      <c r="A25" s="454"/>
+      <c r="A25" s="424"/>
       <c r="B25" s="165">
         <v>1905008</v>
       </c>
@@ -6807,7 +6839,7 @@
       <c r="S25" s="263"/>
     </row>
     <row r="26" spans="1:19">
-      <c r="A26" s="454"/>
+      <c r="A26" s="424"/>
       <c r="B26" s="75">
         <v>1901006</v>
       </c>
@@ -6851,14 +6883,14 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="Q26" s="304">
-        <v>1</v>
+      <c r="Q26" s="304" t="s">
+        <v>314</v>
       </c>
       <c r="R26" s="67"/>
       <c r="S26" s="263"/>
     </row>
     <row r="27" spans="1:19">
-      <c r="A27" s="454"/>
+      <c r="A27" s="424"/>
       <c r="B27" s="75">
         <v>1901007</v>
       </c>
@@ -6913,7 +6945,7 @@
       <c r="S27" s="263"/>
     </row>
     <row r="28" spans="1:19">
-      <c r="A28" s="454"/>
+      <c r="A28" s="424"/>
       <c r="B28" s="80">
         <v>1901028</v>
       </c>
@@ -6968,7 +7000,7 @@
       <c r="S28" s="263"/>
     </row>
     <row r="29" spans="1:19" ht="15" thickBot="1">
-      <c r="A29" s="455"/>
+      <c r="A29" s="425"/>
       <c r="B29" s="81"/>
       <c r="C29" s="117" t="s">
         <v>32</v>
@@ -7006,12 +7038,16 @@
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="Q29" s="304"/>
+      <c r="Q29" s="304">
+        <v>1</v>
+      </c>
       <c r="R29" s="67"/>
-      <c r="S29" s="263"/>
+      <c r="S29" s="263">
+        <v>48</v>
+      </c>
     </row>
     <row r="30" spans="1:19">
-      <c r="A30" s="453" t="s">
+      <c r="A30" s="423" t="s">
         <v>33</v>
       </c>
       <c r="B30" s="76">
@@ -7066,7 +7102,7 @@
       <c r="S30" s="271"/>
     </row>
     <row r="31" spans="1:19">
-      <c r="A31" s="454"/>
+      <c r="A31" s="424"/>
       <c r="B31" s="78">
         <v>3100014</v>
       </c>
@@ -7120,7 +7156,7 @@
       <c r="S31" s="271"/>
     </row>
     <row r="32" spans="1:19">
-      <c r="A32" s="454"/>
+      <c r="A32" s="424"/>
       <c r="B32" s="80">
         <v>1905035</v>
       </c>
@@ -7175,7 +7211,7 @@
       <c r="S32" s="263"/>
     </row>
     <row r="33" spans="1:19">
-      <c r="A33" s="454"/>
+      <c r="A33" s="424"/>
       <c r="B33" s="80">
         <v>1905036</v>
       </c>
@@ -7226,7 +7262,7 @@
       <c r="S33" s="263"/>
     </row>
     <row r="34" spans="1:19">
-      <c r="A34" s="454"/>
+      <c r="A34" s="424"/>
       <c r="B34" s="169"/>
       <c r="C34" s="170"/>
       <c r="D34" s="171"/>
@@ -7267,7 +7303,7 @@
       <c r="S34" s="263"/>
     </row>
     <row r="35" spans="1:19">
-      <c r="A35" s="454"/>
+      <c r="A35" s="424"/>
       <c r="B35" s="169"/>
       <c r="C35" s="170"/>
       <c r="D35" s="171"/>
@@ -7304,7 +7340,7 @@
       <c r="S35" s="263"/>
     </row>
     <row r="36" spans="1:19" ht="15" thickBot="1">
-      <c r="A36" s="454"/>
+      <c r="A36" s="424"/>
       <c r="B36" s="199"/>
       <c r="C36" s="254" t="s">
         <v>36</v>
@@ -7350,7 +7386,7 @@
       </c>
     </row>
     <row r="37" spans="1:19">
-      <c r="A37" s="450" t="s">
+      <c r="A37" s="420" t="s">
         <v>37</v>
       </c>
       <c r="B37" s="175">
@@ -7403,7 +7439,7 @@
       <c r="S37" s="271"/>
     </row>
     <row r="38" spans="1:19">
-      <c r="A38" s="451"/>
+      <c r="A38" s="421"/>
       <c r="B38" s="261">
         <v>1905046</v>
       </c>
@@ -7457,7 +7493,7 @@
       </c>
     </row>
     <row r="39" spans="1:19">
-      <c r="A39" s="451"/>
+      <c r="A39" s="421"/>
       <c r="B39" s="261">
         <v>1905047</v>
       </c>
@@ -7511,7 +7547,7 @@
       </c>
     </row>
     <row r="40" spans="1:19">
-      <c r="A40" s="451"/>
+      <c r="A40" s="421"/>
       <c r="B40" s="261">
         <v>1901015</v>
       </c>
@@ -7557,12 +7593,16 @@
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="Q40" s="304"/>
-      <c r="R40" s="67"/>
+      <c r="Q40" s="304">
+        <v>1</v>
+      </c>
+      <c r="R40" s="67">
+        <v>48</v>
+      </c>
       <c r="S40" s="263"/>
     </row>
     <row r="41" spans="1:19">
-      <c r="A41" s="451"/>
+      <c r="A41" s="421"/>
       <c r="B41" s="261">
         <v>1901016</v>
       </c>
@@ -7608,12 +7648,16 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="Q41" s="304"/>
+      <c r="Q41" s="304">
+        <v>1</v>
+      </c>
       <c r="R41" s="67"/>
-      <c r="S41" s="263"/>
+      <c r="S41" s="263">
+        <v>16</v>
+      </c>
     </row>
     <row r="42" spans="1:19">
-      <c r="A42" s="451"/>
+      <c r="A42" s="421"/>
       <c r="B42" s="261">
         <v>1901013</v>
       </c>
@@ -7662,7 +7706,7 @@
       <c r="S42" s="263"/>
     </row>
     <row r="43" spans="1:19">
-      <c r="A43" s="451"/>
+      <c r="A43" s="421"/>
       <c r="B43" s="261">
         <v>1901014</v>
       </c>
@@ -7711,7 +7755,7 @@
       <c r="S43" s="263"/>
     </row>
     <row r="44" spans="1:19">
-      <c r="A44" s="451"/>
+      <c r="A44" s="421"/>
       <c r="B44" s="261"/>
       <c r="C44" s="28"/>
       <c r="D44" s="22"/>
@@ -7746,7 +7790,7 @@
       <c r="S44" s="263"/>
     </row>
     <row r="45" spans="1:19" ht="15" thickBot="1">
-      <c r="A45" s="452"/>
+      <c r="A45" s="422"/>
       <c r="B45" s="23"/>
       <c r="C45" s="117" t="s">
         <v>38</v>
@@ -7779,7 +7823,7 @@
       <c r="S45" s="263"/>
     </row>
     <row r="46" spans="1:19">
-      <c r="A46" s="450" t="s">
+      <c r="A46" s="420" t="s">
         <v>39</v>
       </c>
       <c r="B46" s="175">
@@ -7823,14 +7867,14 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Q46" s="304">
-        <v>1</v>
+      <c r="Q46" s="304" t="s">
+        <v>314</v>
       </c>
       <c r="R46" s="7"/>
       <c r="S46" s="271"/>
     </row>
     <row r="47" spans="1:19">
-      <c r="A47" s="451"/>
+      <c r="A47" s="421"/>
       <c r="B47" s="126">
         <v>1900103</v>
       </c>
@@ -7873,16 +7917,16 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Q47" s="304">
-        <v>1</v>
-      </c>
-      <c r="R47" s="7">
-        <v>48</v>
+      <c r="Q47" s="304" t="s">
+        <v>313</v>
+      </c>
+      <c r="R47" s="7" t="s">
+        <v>313</v>
       </c>
       <c r="S47" s="271"/>
     </row>
     <row r="48" spans="1:19">
-      <c r="A48" s="451"/>
+      <c r="A48" s="421"/>
       <c r="B48" s="272">
         <v>1905083</v>
       </c>
@@ -7928,12 +7972,12 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Q48" s="304">
-        <v>1</v>
+      <c r="Q48" s="304" t="s">
+        <v>318</v>
       </c>
       <c r="R48" s="67"/>
-      <c r="S48" s="263">
-        <v>16</v>
+      <c r="S48" s="263" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="49" spans="1:19">
@@ -7964,27 +8008,29 @@
       <c r="J49" s="263">
         <v>32</v>
       </c>
-      <c r="K49" s="269">
-        <v>1901036</v>
+      <c r="K49" s="269" t="s">
+        <v>317</v>
       </c>
       <c r="L49" s="102" t="s">
-        <v>100</v>
-      </c>
-      <c r="M49" s="103">
-        <v>32</v>
-      </c>
-      <c r="N49" s="104">
-        <v>2</v>
+        <v>314</v>
+      </c>
+      <c r="M49" s="103" t="s">
+        <v>315</v>
+      </c>
+      <c r="N49" s="104" t="s">
+        <v>319</v>
       </c>
       <c r="O49" s="387"/>
-      <c r="P49" s="304">
+      <c r="P49" s="304" t="str">
         <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="Q49" s="304">
-        <v>1</v>
-      </c>
-      <c r="R49" s="67"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q49" s="304" t="s">
+        <v>317</v>
+      </c>
+      <c r="R49" s="67" t="s">
+        <v>315</v>
+      </c>
       <c r="S49" s="263"/>
     </row>
     <row r="50" spans="1:19">
@@ -8094,9 +8140,8 @@
       <c r="O52" s="392" t="s">
         <v>139</v>
       </c>
-      <c r="P52" s="304" t="str">
-        <f t="shared" si="1"/>
-        <v>2周</v>
+      <c r="P52" s="304">
+        <v>80</v>
       </c>
       <c r="Q52" s="304">
         <v>1</v>
@@ -8192,7 +8237,7 @@
       <c r="S55" s="263"/>
     </row>
     <row r="56" spans="1:19">
-      <c r="A56" s="450" t="s">
+      <c r="A56" s="420" t="s">
         <v>43</v>
       </c>
       <c r="B56" s="205">
@@ -8235,14 +8280,14 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Q56" s="304">
-        <v>1</v>
+      <c r="Q56" s="304" t="s">
+        <v>312</v>
       </c>
       <c r="R56" s="7"/>
       <c r="S56" s="271"/>
     </row>
     <row r="57" spans="1:19">
-      <c r="A57" s="451"/>
+      <c r="A57" s="421"/>
       <c r="B57" s="126">
         <v>1900105</v>
       </c>
@@ -8288,7 +8333,7 @@
       <c r="S57" s="271"/>
     </row>
     <row r="58" spans="1:19">
-      <c r="A58" s="451"/>
+      <c r="A58" s="421"/>
       <c r="B58" s="126">
         <v>1900107</v>
       </c>
@@ -8336,7 +8381,7 @@
       <c r="S58" s="271"/>
     </row>
     <row r="59" spans="1:19">
-      <c r="A59" s="451"/>
+      <c r="A59" s="421"/>
       <c r="B59" s="130"/>
       <c r="C59" s="129" t="s">
         <v>127</v>
@@ -8382,7 +8427,7 @@
       <c r="S59" s="271"/>
     </row>
     <row r="60" spans="1:19">
-      <c r="A60" s="451"/>
+      <c r="A60" s="421"/>
       <c r="B60" s="273"/>
       <c r="C60" s="18" t="s">
         <v>97</v>
@@ -8425,7 +8470,7 @@
       <c r="S60" s="164"/>
     </row>
     <row r="61" spans="1:19">
-      <c r="A61" s="451"/>
+      <c r="A61" s="421"/>
       <c r="B61" s="273"/>
       <c r="C61" s="18" t="s">
         <v>83</v>
@@ -8468,7 +8513,7 @@
       <c r="S61" s="164"/>
     </row>
     <row r="62" spans="1:19">
-      <c r="A62" s="451"/>
+      <c r="A62" s="421"/>
       <c r="B62" s="273"/>
       <c r="C62" s="18" t="s">
         <v>91</v>
@@ -8511,7 +8556,7 @@
       <c r="S62" s="164"/>
     </row>
     <row r="63" spans="1:19" ht="15" thickBot="1">
-      <c r="A63" s="452"/>
+      <c r="A63" s="422"/>
       <c r="B63" s="23"/>
       <c r="C63" s="210"/>
       <c r="D63" s="30"/>
@@ -8667,9 +8712,9 @@
       <c r="K66" s="42"/>
       <c r="L66" s="43"/>
       <c r="M66" s="44"/>
-      <c r="N66" s="46" t="e">
-        <f>SUM(N4+N13+N14+N15+N18+N19+N21+N22+N23+N24+N25+N27+N28+N30+N31+N32+N34+N37+N36+N38+N39+N47+N48+N49+N50+N51+N52+N63+N64)</f>
-        <v>#VALUE!</v>
+      <c r="N66" s="46">
+        <f>N64+N63+N52+N51+N50+N41+N40+N39+N38+N37+N36+N34+N32+N31+N30+N29+N28+N27+N25+N24+N23+N22+N21+N19+N18+N14+N13+N4</f>
+        <v>67</v>
       </c>
       <c r="O66" s="398"/>
       <c r="P66" s="304">
@@ -8678,7 +8723,7 @@
       </c>
       <c r="Q66" s="304">
         <f>SUM(Q4:Q65)</f>
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="R66" s="252">
         <f>SUM(R4:R65)</f>
@@ -8836,27 +8881,27 @@
         <v>48</v>
       </c>
       <c r="B72" s="120"/>
-      <c r="C72" s="441" t="str">
+      <c r="C72" s="426" t="str">
         <f>"必修部分（&lt;=60%,"&amp;B78*0.6&amp;"学分)"</f>
         <v>必修部分（&lt;=60%,75学分)</v>
       </c>
-      <c r="D72" s="442"/>
-      <c r="E72" s="443"/>
-      <c r="F72" s="441" t="str">
+      <c r="D72" s="427"/>
+      <c r="E72" s="428"/>
+      <c r="F72" s="426" t="str">
         <f>"选修部分（&gt;=40%,"&amp;B78*0.4&amp;"学分"</f>
         <v>选修部分（&gt;=40%,50学分</v>
       </c>
-      <c r="G72" s="442"/>
-      <c r="H72" s="442"/>
-      <c r="I72" s="442"/>
-      <c r="J72" s="442"/>
-      <c r="K72" s="442"/>
-      <c r="L72" s="443"/>
-      <c r="M72" s="444" t="s">
+      <c r="G72" s="427"/>
+      <c r="H72" s="427"/>
+      <c r="I72" s="427"/>
+      <c r="J72" s="427"/>
+      <c r="K72" s="427"/>
+      <c r="L72" s="428"/>
+      <c r="M72" s="429" t="s">
         <v>110</v>
       </c>
-      <c r="N72" s="444"/>
-      <c r="O72" s="445"/>
+      <c r="N72" s="429"/>
+      <c r="O72" s="430"/>
       <c r="R72"/>
       <c r="S72"/>
     </row>
@@ -8892,19 +8937,19 @@
       <c r="L73" s="125">
         <v>18</v>
       </c>
-      <c r="M73" s="446" t="s">
+      <c r="M73" s="431" t="s">
         <v>112</v>
       </c>
-      <c r="N73" s="447"/>
-      <c r="O73" s="448"/>
+      <c r="N73" s="432"/>
+      <c r="O73" s="433"/>
       <c r="R73" s="123"/>
       <c r="S73" s="123"/>
     </row>
     <row r="74" spans="1:19">
-      <c r="A74" s="433">
+      <c r="A74" s="434">
         <v>2</v>
       </c>
-      <c r="B74" s="449" t="s">
+      <c r="B74" s="435" t="s">
         <v>51</v>
       </c>
       <c r="C74" s="126"/>
@@ -8929,8 +8974,8 @@
       <c r="S74" s="127"/>
     </row>
     <row r="75" spans="1:19" ht="26">
-      <c r="A75" s="433"/>
-      <c r="B75" s="434"/>
+      <c r="A75" s="434"/>
+      <c r="B75" s="436"/>
       <c r="C75" s="129"/>
       <c r="D75" s="130"/>
       <c r="E75" s="130"/>
@@ -8952,10 +8997,10 @@
       <c r="S75" s="131"/>
     </row>
     <row r="76" spans="1:19" ht="32" customHeight="1">
-      <c r="A76" s="433">
+      <c r="A76" s="434">
         <v>3</v>
       </c>
-      <c r="B76" s="434" t="s">
+      <c r="B76" s="436" t="s">
         <v>113</v>
       </c>
       <c r="C76" s="132" t="s">
@@ -8978,15 +9023,15 @@
       <c r="L76" s="136">
         <v>26</v>
       </c>
-      <c r="M76" s="435"/>
-      <c r="N76" s="435"/>
-      <c r="O76" s="436"/>
+      <c r="M76" s="439"/>
+      <c r="N76" s="439"/>
+      <c r="O76" s="440"/>
       <c r="R76" s="135"/>
       <c r="S76" s="135"/>
     </row>
     <row r="77" spans="1:19" ht="26">
-      <c r="A77" s="433"/>
-      <c r="B77" s="434"/>
+      <c r="A77" s="434"/>
+      <c r="B77" s="436"/>
       <c r="C77" s="132" t="s">
         <v>119</v>
       </c>
@@ -9034,9 +9079,9 @@
         <f>SUM(L73:L77)</f>
         <v>59</v>
       </c>
-      <c r="M78" s="439"/>
-      <c r="N78" s="439"/>
-      <c r="O78" s="440"/>
+      <c r="M78" s="441"/>
+      <c r="N78" s="441"/>
+      <c r="O78" s="442"/>
       <c r="R78" s="238"/>
       <c r="S78" s="238"/>
     </row>
@@ -9106,16 +9151,16 @@
       <c r="S81"/>
     </row>
     <row r="82" spans="1:19" ht="39" customHeight="1">
-      <c r="A82" s="414"/>
-      <c r="B82" s="420"/>
-      <c r="C82" s="420"/>
-      <c r="D82" s="420"/>
-      <c r="E82" s="420"/>
-      <c r="F82" s="415"/>
+      <c r="A82" s="443"/>
+      <c r="B82" s="444"/>
+      <c r="C82" s="444"/>
+      <c r="D82" s="444"/>
+      <c r="E82" s="444"/>
+      <c r="F82" s="445"/>
       <c r="G82" s="222" t="s">
         <v>189</v>
       </c>
-      <c r="H82" s="431" t="s">
+      <c r="H82" s="449" t="s">
         <v>191</v>
       </c>
       <c r="I82" s="236"/>
@@ -9123,13 +9168,13 @@
       <c r="K82" s="222" t="s">
         <v>192</v>
       </c>
-      <c r="L82" s="431" t="s">
+      <c r="L82" s="449" t="s">
         <v>6</v>
       </c>
       <c r="M82" s="222" t="s">
         <v>194</v>
       </c>
-      <c r="N82" s="431" t="s">
+      <c r="N82" s="449" t="s">
         <v>195</v>
       </c>
       <c r="O82" t="s">
@@ -9142,43 +9187,43 @@
       <c r="S82" s="236"/>
     </row>
     <row r="83" spans="1:19" ht="15" thickBot="1">
-      <c r="A83" s="428" t="s">
+      <c r="A83" s="446" t="s">
         <v>188</v>
       </c>
-      <c r="B83" s="429"/>
-      <c r="C83" s="429"/>
-      <c r="D83" s="429"/>
-      <c r="E83" s="429"/>
-      <c r="F83" s="430"/>
+      <c r="B83" s="447"/>
+      <c r="C83" s="447"/>
+      <c r="D83" s="447"/>
+      <c r="E83" s="447"/>
+      <c r="F83" s="448"/>
       <c r="G83" s="223" t="s">
         <v>190</v>
       </c>
-      <c r="H83" s="432"/>
+      <c r="H83" s="450"/>
       <c r="I83" s="237"/>
       <c r="J83" s="237"/>
       <c r="K83" s="223" t="s">
         <v>193</v>
       </c>
-      <c r="L83" s="432"/>
+      <c r="L83" s="450"/>
       <c r="M83" s="223" t="s">
         <v>193</v>
       </c>
-      <c r="N83" s="432"/>
+      <c r="N83" s="450"/>
       <c r="O83"/>
       <c r="R83" s="237"/>
       <c r="S83" s="237"/>
     </row>
     <row r="84" spans="1:19" ht="15" thickBot="1">
-      <c r="A84" s="414" t="s">
+      <c r="A84" s="443" t="s">
         <v>196</v>
       </c>
-      <c r="B84" s="415"/>
-      <c r="C84" s="412" t="s">
+      <c r="B84" s="445"/>
+      <c r="C84" s="455" t="s">
         <v>197</v>
       </c>
-      <c r="D84" s="413"/>
-      <c r="E84" s="413"/>
-      <c r="F84" s="411"/>
+      <c r="D84" s="456"/>
+      <c r="E84" s="456"/>
+      <c r="F84" s="457"/>
       <c r="G84" s="223">
         <v>7</v>
       </c>
@@ -9204,16 +9249,16 @@
       <c r="S84" s="237"/>
     </row>
     <row r="85" spans="1:19" ht="15" thickBot="1">
-      <c r="A85" s="416"/>
-      <c r="B85" s="417"/>
-      <c r="C85" s="414" t="s">
+      <c r="A85" s="451"/>
+      <c r="B85" s="452"/>
+      <c r="C85" s="443" t="s">
         <v>198</v>
       </c>
-      <c r="D85" s="415"/>
-      <c r="E85" s="412" t="s">
+      <c r="D85" s="445"/>
+      <c r="E85" s="455" t="s">
         <v>199</v>
       </c>
-      <c r="F85" s="411"/>
+      <c r="F85" s="457"/>
       <c r="G85" s="223">
         <f>SUM(H9+H10+H11+H12+H18+H24+H25+H42+H43)</f>
         <v>9</v>
@@ -9242,14 +9287,14 @@
       <c r="S85" s="237"/>
     </row>
     <row r="86" spans="1:19" ht="15" thickBot="1">
-      <c r="A86" s="418"/>
-      <c r="B86" s="419"/>
-      <c r="C86" s="418"/>
-      <c r="D86" s="419"/>
-      <c r="E86" s="412" t="s">
+      <c r="A86" s="453"/>
+      <c r="B86" s="454"/>
+      <c r="C86" s="453"/>
+      <c r="D86" s="454"/>
+      <c r="E86" s="455" t="s">
         <v>200</v>
       </c>
-      <c r="F86" s="411"/>
+      <c r="F86" s="457"/>
       <c r="G86" s="223">
         <f>SUM(H17+H26+H27+H28+H32+H33+H38+H39+H40+H41+H48+H49)</f>
         <v>12</v>
@@ -9278,19 +9323,19 @@
       <c r="S86" s="237"/>
     </row>
     <row r="87" spans="1:19" ht="15" thickBot="1">
-      <c r="A87" s="414" t="s">
+      <c r="A87" s="443" t="s">
         <v>201</v>
       </c>
-      <c r="B87" s="415"/>
-      <c r="C87" s="412" t="s">
+      <c r="B87" s="445"/>
+      <c r="C87" s="455" t="s">
         <v>202</v>
       </c>
-      <c r="D87" s="413"/>
-      <c r="E87" s="413"/>
-      <c r="F87" s="411"/>
+      <c r="D87" s="456"/>
+      <c r="E87" s="456"/>
+      <c r="F87" s="457"/>
       <c r="G87" s="223">
-        <f>Q4+Q13+Q14+Q15+Q18+Q19+Q21+Q22+Q23+Q24+Q25+Q27+Q28+Q30+Q31+Q32+Q34+Q37+Q38+Q39+Q36+Q46+Q47+Q48+Q49+Q50+Q51+Q52+Q63+Q64</f>
-        <v>30</v>
+        <f>Q66</f>
+        <v>28</v>
       </c>
       <c r="H87" s="223">
         <f>P66</f>
@@ -9302,13 +9347,13 @@
         <f>H87/(L76*16+G66)</f>
         <v>0.5566860465116279</v>
       </c>
-      <c r="L87" s="241" t="e">
+      <c r="L87" s="241">
         <f>N66</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M87" s="223" t="e">
+        <v>67</v>
+      </c>
+      <c r="M87" s="223">
         <f>L87/B78</f>
-        <v>#VALUE!</v>
+        <v>0.53600000000000003</v>
       </c>
       <c r="N87" s="223"/>
       <c r="O87"/>
@@ -9316,14 +9361,14 @@
       <c r="S87" s="237"/>
     </row>
     <row r="88" spans="1:19" ht="15" thickBot="1">
-      <c r="A88" s="416"/>
-      <c r="B88" s="417"/>
-      <c r="C88" s="412" t="s">
+      <c r="A88" s="451"/>
+      <c r="B88" s="452"/>
+      <c r="C88" s="455" t="s">
         <v>203</v>
       </c>
-      <c r="D88" s="413"/>
-      <c r="E88" s="413"/>
-      <c r="F88" s="411"/>
+      <c r="D88" s="456"/>
+      <c r="E88" s="456"/>
+      <c r="F88" s="457"/>
       <c r="G88" s="223">
         <v>7</v>
       </c>
@@ -9349,13 +9394,13 @@
       <c r="S88" s="237"/>
     </row>
     <row r="89" spans="1:19" ht="15" thickBot="1">
-      <c r="A89" s="416"/>
-      <c r="B89" s="417"/>
-      <c r="C89" s="412" t="s">
+      <c r="A89" s="451"/>
+      <c r="B89" s="452"/>
+      <c r="C89" s="455" t="s">
         <v>204</v>
       </c>
-      <c r="D89" s="413"/>
-      <c r="E89" s="411"/>
+      <c r="D89" s="456"/>
+      <c r="E89" s="457"/>
       <c r="F89" s="223" t="s">
         <v>205</v>
       </c>
@@ -9376,11 +9421,11 @@
       <c r="S89" s="237"/>
     </row>
     <row r="90" spans="1:19" ht="15" thickBot="1">
-      <c r="A90" s="416"/>
-      <c r="B90" s="417"/>
-      <c r="C90" s="414"/>
-      <c r="D90" s="420"/>
-      <c r="E90" s="415"/>
+      <c r="A90" s="451"/>
+      <c r="B90" s="452"/>
+      <c r="C90" s="443"/>
+      <c r="D90" s="444"/>
+      <c r="E90" s="445"/>
       <c r="F90" s="223" t="s">
         <v>207</v>
       </c>
@@ -9404,11 +9449,11 @@
       <c r="S90" s="237"/>
     </row>
     <row r="91" spans="1:19" ht="15" thickBot="1">
-      <c r="A91" s="416"/>
-      <c r="B91" s="417"/>
-      <c r="C91" s="416"/>
-      <c r="D91" s="421"/>
-      <c r="E91" s="417"/>
+      <c r="A91" s="451"/>
+      <c r="B91" s="452"/>
+      <c r="C91" s="451"/>
+      <c r="D91" s="458"/>
+      <c r="E91" s="452"/>
       <c r="F91" s="223" t="s">
         <v>208</v>
       </c>
@@ -9432,13 +9477,13 @@
       <c r="S91" s="237"/>
     </row>
     <row r="92" spans="1:19" ht="15" thickBot="1">
-      <c r="A92" s="416"/>
-      <c r="B92" s="417"/>
-      <c r="C92" s="416" t="s">
+      <c r="A92" s="451"/>
+      <c r="B92" s="452"/>
+      <c r="C92" s="451" t="s">
         <v>206</v>
       </c>
-      <c r="D92" s="421"/>
-      <c r="E92" s="417"/>
+      <c r="D92" s="458"/>
+      <c r="E92" s="452"/>
       <c r="F92" s="223" t="s">
         <v>209</v>
       </c>
@@ -9462,11 +9507,11 @@
       <c r="S92" s="237"/>
     </row>
     <row r="93" spans="1:19" ht="15" thickBot="1">
-      <c r="A93" s="416"/>
-      <c r="B93" s="417"/>
-      <c r="C93" s="422"/>
-      <c r="D93" s="423"/>
-      <c r="E93" s="424"/>
+      <c r="A93" s="451"/>
+      <c r="B93" s="452"/>
+      <c r="C93" s="459"/>
+      <c r="D93" s="460"/>
+      <c r="E93" s="461"/>
       <c r="F93" s="223" t="s">
         <v>210</v>
       </c>
@@ -9490,11 +9535,11 @@
       <c r="S93" s="237"/>
     </row>
     <row r="94" spans="1:19" ht="15" thickBot="1">
-      <c r="A94" s="416"/>
-      <c r="B94" s="417"/>
-      <c r="C94" s="422"/>
-      <c r="D94" s="423"/>
-      <c r="E94" s="424"/>
+      <c r="A94" s="451"/>
+      <c r="B94" s="452"/>
+      <c r="C94" s="459"/>
+      <c r="D94" s="460"/>
+      <c r="E94" s="461"/>
       <c r="F94" s="223" t="s">
         <v>211</v>
       </c>
@@ -9518,11 +9563,11 @@
       <c r="S94" s="237"/>
     </row>
     <row r="95" spans="1:19" ht="15" thickBot="1">
-      <c r="A95" s="416"/>
-      <c r="B95" s="417"/>
-      <c r="C95" s="425"/>
-      <c r="D95" s="426"/>
-      <c r="E95" s="427"/>
+      <c r="A95" s="451"/>
+      <c r="B95" s="452"/>
+      <c r="C95" s="462"/>
+      <c r="D95" s="463"/>
+      <c r="E95" s="464"/>
       <c r="F95" s="224" t="s">
         <v>212</v>
       </c>
@@ -9546,13 +9591,13 @@
       <c r="S95" s="237"/>
     </row>
     <row r="96" spans="1:19" ht="15" thickBot="1">
-      <c r="A96" s="418"/>
-      <c r="B96" s="419"/>
-      <c r="C96" s="412" t="s">
+      <c r="A96" s="453"/>
+      <c r="B96" s="454"/>
+      <c r="C96" s="455" t="s">
         <v>213</v>
       </c>
-      <c r="D96" s="413"/>
-      <c r="E96" s="411"/>
+      <c r="D96" s="456"/>
+      <c r="E96" s="457"/>
       <c r="F96" s="224"/>
       <c r="G96" s="223">
         <v>7</v>
@@ -9574,17 +9619,17 @@
       <c r="S96" s="237"/>
     </row>
     <row r="97" spans="1:19" ht="15" thickBot="1">
-      <c r="A97" s="412" t="s">
+      <c r="A97" s="455" t="s">
         <v>214</v>
       </c>
-      <c r="B97" s="413"/>
-      <c r="C97" s="413"/>
-      <c r="D97" s="413"/>
-      <c r="E97" s="413"/>
-      <c r="F97" s="411"/>
+      <c r="B97" s="456"/>
+      <c r="C97" s="456"/>
+      <c r="D97" s="456"/>
+      <c r="E97" s="456"/>
+      <c r="F97" s="457"/>
       <c r="G97" s="223">
         <f>SUM(G84:G96)</f>
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H97" s="223">
         <f>(L76*16+G66)</f>
@@ -9604,32 +9649,32 @@
       <c r="A98" s="225" t="s">
         <v>215</v>
       </c>
-      <c r="B98" s="410">
+      <c r="B98" s="465">
         <f>B78</f>
         <v>125</v>
       </c>
-      <c r="C98" s="411"/>
-      <c r="D98" s="412" t="s">
+      <c r="C98" s="457"/>
+      <c r="D98" s="455" t="s">
         <v>216</v>
       </c>
-      <c r="E98" s="413"/>
-      <c r="F98" s="411"/>
-      <c r="G98" s="410">
+      <c r="E98" s="456"/>
+      <c r="F98" s="457"/>
+      <c r="G98" s="465">
         <f>B78-L78</f>
         <v>66</v>
       </c>
-      <c r="H98" s="411"/>
+      <c r="H98" s="457"/>
       <c r="I98" s="235"/>
       <c r="J98" s="235"/>
-      <c r="K98" s="412" t="s">
+      <c r="K98" s="455" t="s">
         <v>217</v>
       </c>
-      <c r="L98" s="411"/>
-      <c r="M98" s="410">
+      <c r="L98" s="457"/>
+      <c r="M98" s="465">
         <f>L78</f>
         <v>59</v>
       </c>
-      <c r="N98" s="411"/>
+      <c r="N98" s="457"/>
       <c r="O98"/>
       <c r="R98" s="235"/>
       <c r="S98" s="235"/>
@@ -9675,40 +9720,12 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="A4:A12"/>
-    <mergeCell ref="A56:A63"/>
-    <mergeCell ref="A13:A21"/>
-    <mergeCell ref="A22:A29"/>
-    <mergeCell ref="A30:A36"/>
-    <mergeCell ref="A37:A45"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="C72:E72"/>
-    <mergeCell ref="F72:L72"/>
-    <mergeCell ref="M72:O72"/>
-    <mergeCell ref="M73:O73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="M74:O74"/>
-    <mergeCell ref="M75:O75"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="M76:O76"/>
-    <mergeCell ref="M77:O77"/>
-    <mergeCell ref="M78:O78"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="H82:H83"/>
-    <mergeCell ref="L82:L83"/>
-    <mergeCell ref="N82:N83"/>
-    <mergeCell ref="A84:B86"/>
-    <mergeCell ref="C84:F84"/>
-    <mergeCell ref="C85:D86"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="M98:N98"/>
+    <mergeCell ref="A97:F97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="D98:F98"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="K98:L98"/>
     <mergeCell ref="A87:B96"/>
     <mergeCell ref="C87:F87"/>
     <mergeCell ref="C88:F88"/>
@@ -9720,12 +9737,40 @@
     <mergeCell ref="C94:E94"/>
     <mergeCell ref="C95:E95"/>
     <mergeCell ref="C96:E96"/>
-    <mergeCell ref="M98:N98"/>
-    <mergeCell ref="A97:F97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="D98:F98"/>
-    <mergeCell ref="G98:H98"/>
-    <mergeCell ref="K98:L98"/>
+    <mergeCell ref="A84:B86"/>
+    <mergeCell ref="C84:F84"/>
+    <mergeCell ref="C85:D86"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="H82:H83"/>
+    <mergeCell ref="L82:L83"/>
+    <mergeCell ref="N82:N83"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="M76:O76"/>
+    <mergeCell ref="M77:O77"/>
+    <mergeCell ref="M78:O78"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="F72:L72"/>
+    <mergeCell ref="M72:O72"/>
+    <mergeCell ref="M73:O73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="M74:O74"/>
+    <mergeCell ref="M75:O75"/>
+    <mergeCell ref="A56:A63"/>
+    <mergeCell ref="A13:A21"/>
+    <mergeCell ref="A22:A29"/>
+    <mergeCell ref="A30:A36"/>
+    <mergeCell ref="A37:A45"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="A4:A12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9743,8 +9788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E73" sqref="E73"/>
+    <sheetView topLeftCell="D1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="Q68" sqref="Q68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -9768,53 +9813,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="21">
-      <c r="A1" s="456" t="s">
+      <c r="A1" s="410" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="456"/>
-      <c r="C1" s="456"/>
-      <c r="D1" s="456"/>
-      <c r="E1" s="456"/>
-      <c r="F1" s="456"/>
-      <c r="G1" s="456"/>
-      <c r="H1" s="456"/>
-      <c r="I1" s="456"/>
-      <c r="J1" s="456"/>
-      <c r="K1" s="456"/>
-      <c r="L1" s="456"/>
-      <c r="M1" s="456"/>
-      <c r="N1" s="456"/>
-      <c r="O1" s="456"/>
+      <c r="B1" s="410"/>
+      <c r="C1" s="410"/>
+      <c r="D1" s="410"/>
+      <c r="E1" s="410"/>
+      <c r="F1" s="410"/>
+      <c r="G1" s="410"/>
+      <c r="H1" s="410"/>
+      <c r="I1" s="410"/>
+      <c r="J1" s="410"/>
+      <c r="K1" s="410"/>
+      <c r="L1" s="410"/>
+      <c r="M1" s="410"/>
+      <c r="N1" s="410"/>
+      <c r="O1" s="410"/>
       <c r="R1"/>
       <c r="S1"/>
     </row>
     <row r="2" spans="1:19" ht="15">
-      <c r="A2" s="457" t="s">
+      <c r="A2" s="411" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="459" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="460"/>
-      <c r="D2" s="460"/>
-      <c r="E2" s="460"/>
-      <c r="F2" s="461"/>
+      <c r="B2" s="413" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="414"/>
+      <c r="D2" s="414"/>
+      <c r="E2" s="414"/>
+      <c r="F2" s="415"/>
       <c r="G2" s="219"/>
       <c r="H2" s="219"/>
       <c r="I2" s="239"/>
       <c r="J2" s="239"/>
-      <c r="K2" s="478" t="s">
+      <c r="K2" s="466" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="462"/>
-      <c r="M2" s="462"/>
-      <c r="N2" s="462"/>
-      <c r="O2" s="479"/>
+      <c r="L2" s="416"/>
+      <c r="M2" s="416"/>
+      <c r="N2" s="416"/>
+      <c r="O2" s="467"/>
       <c r="R2" s="239"/>
       <c r="S2" s="239"/>
     </row>
     <row r="3" spans="1:19" ht="16" thickBot="1">
-      <c r="A3" s="458"/>
+      <c r="A3" s="412"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -9871,7 +9916,7 @@
       </c>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="464" t="s">
+      <c r="A4" s="418" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="76">
@@ -9926,7 +9971,7 @@
       </c>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="465"/>
+      <c r="A5" s="419"/>
       <c r="B5" s="78">
         <v>310016</v>
       </c>
@@ -9975,7 +10020,7 @@
       <c r="S5" s="85"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="465"/>
+      <c r="A6" s="419"/>
       <c r="B6" s="86">
         <v>330001</v>
       </c>
@@ -10024,7 +10069,7 @@
       <c r="S6" s="324"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="465"/>
+      <c r="A7" s="419"/>
       <c r="B7" s="86">
         <v>1900110</v>
       </c>
@@ -10063,7 +10108,7 @@
       <c r="S7" s="324"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="465"/>
+      <c r="A8" s="419"/>
       <c r="B8" s="86">
         <v>310017</v>
       </c>
@@ -10103,7 +10148,7 @@
       <c r="S8" s="324"/>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" s="465"/>
+      <c r="A9" s="419"/>
       <c r="B9" s="75">
         <v>199186</v>
       </c>
@@ -10146,7 +10191,7 @@
       <c r="S9" s="324"/>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="465"/>
+      <c r="A10" s="419"/>
       <c r="B10" s="75">
         <v>1900101</v>
       </c>
@@ -10185,7 +10230,7 @@
       <c r="S10" s="324"/>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="465"/>
+      <c r="A11" s="419"/>
       <c r="B11" s="75"/>
       <c r="C11" s="15" t="s">
         <v>20</v>
@@ -10220,7 +10265,7 @@
       <c r="S11" s="324"/>
     </row>
     <row r="12" spans="1:19" ht="15" thickBot="1">
-      <c r="A12" s="465"/>
+      <c r="A12" s="419"/>
       <c r="B12" s="81">
         <v>1901001</v>
       </c>
@@ -10267,7 +10312,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" ht="16">
-      <c r="A13" s="453" t="s">
+      <c r="A13" s="423" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="76">
@@ -10321,7 +10366,7 @@
       </c>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="454"/>
+      <c r="A14" s="424"/>
       <c r="B14" s="78">
         <v>310009</v>
       </c>
@@ -10375,7 +10420,7 @@
       <c r="S14" s="326"/>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="454"/>
+      <c r="A15" s="424"/>
       <c r="B15" s="78">
         <v>310013</v>
       </c>
@@ -10403,7 +10448,7 @@
       <c r="J15" s="311"/>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="454"/>
+      <c r="A16" s="424"/>
       <c r="B16" s="194">
         <v>1900102</v>
       </c>
@@ -10441,7 +10486,7 @@
       <c r="S16" s="328"/>
     </row>
     <row r="17" spans="1:19">
-      <c r="A17" s="454"/>
+      <c r="A17" s="424"/>
       <c r="B17" s="163">
         <v>1901003</v>
       </c>
@@ -10497,7 +10542,7 @@
       </c>
     </row>
     <row r="18" spans="1:19">
-      <c r="A18" s="454"/>
+      <c r="A18" s="424"/>
       <c r="B18" s="86">
         <v>1900111</v>
       </c>
@@ -10538,7 +10583,7 @@
       <c r="S18" s="263"/>
     </row>
     <row r="19" spans="1:19">
-      <c r="A19" s="454"/>
+      <c r="A19" s="424"/>
       <c r="B19" s="75">
         <v>1901002</v>
       </c>
@@ -10579,7 +10624,7 @@
       <c r="S19" s="263"/>
     </row>
     <row r="20" spans="1:19">
-      <c r="A20" s="454"/>
+      <c r="A20" s="424"/>
       <c r="B20" s="75">
         <v>1900112</v>
       </c>
@@ -10620,7 +10665,7 @@
       <c r="S20" s="263"/>
     </row>
     <row r="21" spans="1:19">
-      <c r="A21" s="454"/>
+      <c r="A21" s="424"/>
       <c r="B21" s="75">
         <v>1905045</v>
       </c>
@@ -10661,7 +10706,7 @@
       <c r="S21" s="263"/>
     </row>
     <row r="22" spans="1:19" ht="15" thickBot="1">
-      <c r="A22" s="455"/>
+      <c r="A22" s="425"/>
       <c r="B22" s="81"/>
       <c r="C22" s="147" t="s">
         <v>125</v>
@@ -10705,7 +10750,7 @@
       </c>
     </row>
     <row r="23" spans="1:19">
-      <c r="A23" s="453" t="s">
+      <c r="A23" s="423" t="s">
         <v>28</v>
       </c>
       <c r="B23" s="76">
@@ -10751,14 +10796,16 @@
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="Q23" s="113"/>
+      <c r="Q23" s="113">
+        <v>1</v>
+      </c>
       <c r="R23" s="113">
         <v>64</v>
       </c>
       <c r="S23" s="332"/>
     </row>
     <row r="24" spans="1:19">
-      <c r="A24" s="454"/>
+      <c r="A24" s="424"/>
       <c r="B24" s="78">
         <v>310015</v>
       </c>
@@ -10801,14 +10848,16 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="Q24" s="112"/>
+      <c r="Q24" s="112">
+        <v>1</v>
+      </c>
       <c r="R24" s="112">
         <v>64</v>
       </c>
       <c r="S24" s="326"/>
     </row>
     <row r="25" spans="1:19">
-      <c r="A25" s="454"/>
+      <c r="A25" s="424"/>
       <c r="B25" s="75">
         <v>1901007</v>
       </c>
@@ -10862,7 +10911,7 @@
       </c>
     </row>
     <row r="26" spans="1:19">
-      <c r="A26" s="454"/>
+      <c r="A26" s="424"/>
       <c r="B26" s="165">
         <v>1901008</v>
       </c>
@@ -10917,7 +10966,7 @@
       <c r="S26" s="327"/>
     </row>
     <row r="27" spans="1:19">
-      <c r="A27" s="454"/>
+      <c r="A27" s="424"/>
       <c r="B27" s="75">
         <v>1901006</v>
       </c>
@@ -10971,7 +11020,7 @@
       </c>
     </row>
     <row r="28" spans="1:19">
-      <c r="A28" s="454"/>
+      <c r="A28" s="424"/>
       <c r="B28" s="75">
         <v>1901007</v>
       </c>
@@ -11028,7 +11077,7 @@
       </c>
     </row>
     <row r="29" spans="1:19" ht="15" thickBot="1">
-      <c r="A29" s="454"/>
+      <c r="A29" s="424"/>
       <c r="B29" s="335">
         <v>1902028</v>
       </c>
@@ -11083,7 +11132,7 @@
       <c r="S29" s="334"/>
     </row>
     <row r="30" spans="1:19">
-      <c r="A30" s="454"/>
+      <c r="A30" s="424"/>
       <c r="B30" s="402"/>
       <c r="C30" s="403"/>
       <c r="D30" s="404"/>
@@ -11121,7 +11170,7 @@
       </c>
     </row>
     <row r="31" spans="1:19" ht="15" thickBot="1">
-      <c r="A31" s="454"/>
+      <c r="A31" s="424"/>
       <c r="B31" s="81"/>
       <c r="C31" s="117" t="s">
         <v>32</v>
@@ -11142,7 +11191,7 @@
       <c r="J31" s="267"/>
     </row>
     <row r="32" spans="1:19">
-      <c r="A32" s="475" t="s">
+      <c r="A32" s="468" t="s">
         <v>33</v>
       </c>
       <c r="B32" s="76">
@@ -11195,7 +11244,7 @@
       <c r="S32" s="343"/>
     </row>
     <row r="33" spans="1:19">
-      <c r="A33" s="476"/>
+      <c r="A33" s="469"/>
       <c r="B33" s="78">
         <v>3100014</v>
       </c>
@@ -11249,7 +11298,7 @@
       <c r="S33" s="344"/>
     </row>
     <row r="34" spans="1:19">
-      <c r="A34" s="476"/>
+      <c r="A34" s="469"/>
       <c r="B34" s="80">
         <v>1905010</v>
       </c>
@@ -11309,7 +11358,7 @@
       </c>
     </row>
     <row r="35" spans="1:19">
-      <c r="A35" s="476"/>
+      <c r="A35" s="469"/>
       <c r="B35" s="80">
         <v>1905011</v>
       </c>
@@ -11361,7 +11410,7 @@
       <c r="S35" s="344"/>
     </row>
     <row r="36" spans="1:19">
-      <c r="A36" s="476"/>
+      <c r="A36" s="469"/>
       <c r="B36" s="169"/>
       <c r="C36" s="170"/>
       <c r="D36" s="171"/>
@@ -11402,7 +11451,7 @@
       <c r="S36" s="344"/>
     </row>
     <row r="37" spans="1:19">
-      <c r="A37" s="476"/>
+      <c r="A37" s="469"/>
       <c r="B37" s="169"/>
       <c r="C37" s="170"/>
       <c r="D37" s="171"/>
@@ -11431,7 +11480,7 @@
       <c r="S37" s="263"/>
     </row>
     <row r="38" spans="1:19" ht="15" thickBot="1">
-      <c r="A38" s="477"/>
+      <c r="A38" s="470"/>
       <c r="B38" s="81"/>
       <c r="C38" s="117" t="s">
         <v>36</v>
@@ -11466,14 +11515,16 @@
       <c r="P38" s="320">
         <v>80</v>
       </c>
-      <c r="Q38" s="321"/>
+      <c r="Q38" s="321">
+        <v>1</v>
+      </c>
       <c r="R38" s="322"/>
       <c r="S38" s="330">
         <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:19">
-      <c r="A39" s="475" t="s">
+      <c r="A39" s="468" t="s">
         <v>37</v>
       </c>
       <c r="B39" s="173">
@@ -11527,7 +11578,7 @@
       <c r="S39" s="348"/>
     </row>
     <row r="40" spans="1:19">
-      <c r="A40" s="476"/>
+      <c r="A40" s="469"/>
       <c r="B40" s="177">
         <v>1905046</v>
       </c>
@@ -11585,7 +11636,7 @@
       </c>
     </row>
     <row r="41" spans="1:19">
-      <c r="A41" s="476"/>
+      <c r="A41" s="469"/>
       <c r="B41" s="177">
         <v>1905047</v>
       </c>
@@ -11632,7 +11683,9 @@
       <c r="P41" s="216">
         <v>120</v>
       </c>
-      <c r="Q41" s="217"/>
+      <c r="Q41" s="217">
+        <v>1</v>
+      </c>
       <c r="R41" s="317" t="s">
         <v>262</v>
       </c>
@@ -11641,7 +11694,7 @@
       </c>
     </row>
     <row r="42" spans="1:19">
-      <c r="A42" s="476"/>
+      <c r="A42" s="469"/>
       <c r="B42" s="177">
         <v>1901015</v>
       </c>
@@ -11693,7 +11746,7 @@
       </c>
     </row>
     <row r="43" spans="1:19">
-      <c r="A43" s="476"/>
+      <c r="A43" s="469"/>
       <c r="B43" s="177">
         <v>1901016</v>
       </c>
@@ -11745,7 +11798,7 @@
       <c r="S43" s="263"/>
     </row>
     <row r="44" spans="1:19">
-      <c r="A44" s="476"/>
+      <c r="A44" s="469"/>
       <c r="B44" s="177">
         <v>1901013</v>
       </c>
@@ -11797,7 +11850,7 @@
       </c>
     </row>
     <row r="45" spans="1:19">
-      <c r="A45" s="476"/>
+      <c r="A45" s="469"/>
       <c r="B45" s="177">
         <v>1901014</v>
       </c>
@@ -11845,7 +11898,7 @@
       <c r="S45" s="263"/>
     </row>
     <row r="46" spans="1:19">
-      <c r="A46" s="476"/>
+      <c r="A46" s="469"/>
       <c r="B46" s="177"/>
       <c r="C46" s="28"/>
       <c r="D46" s="22"/>
@@ -11879,7 +11932,7 @@
       <c r="S46" s="263"/>
     </row>
     <row r="47" spans="1:19" ht="15" thickBot="1">
-      <c r="A47" s="477"/>
+      <c r="A47" s="470"/>
       <c r="B47" s="81"/>
       <c r="C47" s="117" t="s">
         <v>38</v>
@@ -11910,7 +11963,7 @@
       <c r="S47" s="267"/>
     </row>
     <row r="48" spans="1:19">
-      <c r="A48" s="454" t="s">
+      <c r="A48" s="424" t="s">
         <v>39</v>
       </c>
       <c r="B48" s="173">
@@ -11961,7 +12014,7 @@
       <c r="S48" s="348"/>
     </row>
     <row r="49" spans="1:19">
-      <c r="A49" s="454"/>
+      <c r="A49" s="424"/>
       <c r="B49" s="194">
         <v>1900103</v>
       </c>
@@ -12016,7 +12069,7 @@
       <c r="S49" s="263"/>
     </row>
     <row r="50" spans="1:19">
-      <c r="A50" s="454"/>
+      <c r="A50" s="424"/>
       <c r="B50" s="80">
         <v>1905033</v>
       </c>
@@ -12276,10 +12329,10 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="Q55" s="304">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R55" s="67">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="S55" s="263"/>
     </row>
@@ -12363,7 +12416,7 @@
       <c r="S57" s="349"/>
     </row>
     <row r="58" spans="1:19">
-      <c r="A58" s="450" t="s">
+      <c r="A58" s="420" t="s">
         <v>43</v>
       </c>
       <c r="B58" s="205">
@@ -12412,7 +12465,7 @@
       <c r="S58" s="350"/>
     </row>
     <row r="59" spans="1:19">
-      <c r="A59" s="451"/>
+      <c r="A59" s="421"/>
       <c r="B59" s="126">
         <v>1900105</v>
       </c>
@@ -12464,7 +12517,7 @@
       <c r="S59" s="351"/>
     </row>
     <row r="60" spans="1:19">
-      <c r="A60" s="451"/>
+      <c r="A60" s="421"/>
       <c r="B60" s="126">
         <v>1900107</v>
       </c>
@@ -12511,7 +12564,7 @@
       <c r="S60" s="351"/>
     </row>
     <row r="61" spans="1:19">
-      <c r="A61" s="451"/>
+      <c r="A61" s="421"/>
       <c r="B61" s="130"/>
       <c r="C61" s="129" t="s">
         <v>127</v>
@@ -12556,7 +12609,7 @@
       <c r="S61" s="164"/>
     </row>
     <row r="62" spans="1:19">
-      <c r="A62" s="451"/>
+      <c r="A62" s="421"/>
       <c r="B62" s="373" t="s">
         <v>246</v>
       </c>
@@ -12602,7 +12655,7 @@
       <c r="S62" s="164"/>
     </row>
     <row r="63" spans="1:19">
-      <c r="A63" s="451"/>
+      <c r="A63" s="421"/>
       <c r="B63" s="273"/>
       <c r="C63" s="18" t="s">
         <v>83</v>
@@ -12637,7 +12690,7 @@
       <c r="S63" s="164"/>
     </row>
     <row r="64" spans="1:19">
-      <c r="A64" s="451"/>
+      <c r="A64" s="421"/>
       <c r="B64" s="273"/>
       <c r="C64" s="18" t="s">
         <v>81</v>
@@ -12672,7 +12725,7 @@
       <c r="S64" s="164"/>
     </row>
     <row r="65" spans="1:19" ht="15" thickBot="1">
-      <c r="A65" s="452"/>
+      <c r="A65" s="422"/>
       <c r="B65" s="23"/>
       <c r="C65" s="210"/>
       <c r="D65" s="30"/>
@@ -12840,11 +12893,11 @@
       </c>
       <c r="Q68">
         <f>SUM(Q3:Q67)</f>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="R68" s="48">
         <f>SUM(Q4:R67)</f>
-        <v>701</v>
+        <v>656</v>
       </c>
       <c r="S68" s="48">
         <f>SUM(S4:S66)</f>
@@ -12896,7 +12949,7 @@
       </c>
       <c r="H70" s="52">
         <f>R68</f>
-        <v>701</v>
+        <v>656</v>
       </c>
       <c r="I70" s="56"/>
       <c r="J70" s="56"/>
@@ -13006,27 +13059,27 @@
         <v>48</v>
       </c>
       <c r="B74" s="144"/>
-      <c r="C74" s="441" t="str">
+      <c r="C74" s="426" t="str">
         <f>"必修部分（&lt;=60%,"&amp;B80*0.6&amp;"学分)"</f>
         <v>必修部分（&lt;=60%,78学分)</v>
       </c>
-      <c r="D74" s="442"/>
-      <c r="E74" s="443"/>
-      <c r="F74" s="441" t="str">
+      <c r="D74" s="427"/>
+      <c r="E74" s="428"/>
+      <c r="F74" s="426" t="str">
         <f>"选修部分（&gt;=40%,("&amp;B80*0.4&amp;"学分)"</f>
         <v>选修部分（&gt;=40%,(52学分)</v>
       </c>
-      <c r="G74" s="442"/>
-      <c r="H74" s="442"/>
-      <c r="I74" s="442"/>
-      <c r="J74" s="442"/>
-      <c r="K74" s="442"/>
-      <c r="L74" s="443"/>
-      <c r="M74" s="444" t="s">
+      <c r="G74" s="427"/>
+      <c r="H74" s="427"/>
+      <c r="I74" s="427"/>
+      <c r="J74" s="427"/>
+      <c r="K74" s="427"/>
+      <c r="L74" s="428"/>
+      <c r="M74" s="429" t="s">
         <v>110</v>
       </c>
-      <c r="N74" s="444"/>
-      <c r="O74" s="445"/>
+      <c r="N74" s="429"/>
+      <c r="O74" s="430"/>
       <c r="R74"/>
       <c r="S74"/>
     </row>
@@ -13062,19 +13115,19 @@
       <c r="L75" s="125">
         <v>18</v>
       </c>
-      <c r="M75" s="446" t="s">
+      <c r="M75" s="431" t="s">
         <v>112</v>
       </c>
-      <c r="N75" s="447"/>
-      <c r="O75" s="448"/>
+      <c r="N75" s="432"/>
+      <c r="O75" s="433"/>
       <c r="R75"/>
       <c r="S75"/>
     </row>
     <row r="76" spans="1:19">
-      <c r="A76" s="433">
+      <c r="A76" s="434">
         <v>2</v>
       </c>
-      <c r="B76" s="449" t="s">
+      <c r="B76" s="435" t="s">
         <v>51</v>
       </c>
       <c r="C76" s="126"/>
@@ -13092,15 +13145,15 @@
         <f>SUM(E16+E49+E58+E59+E60+E66)</f>
         <v>10</v>
       </c>
-      <c r="M76" s="469"/>
-      <c r="N76" s="470"/>
-      <c r="O76" s="471"/>
+      <c r="M76" s="471"/>
+      <c r="N76" s="472"/>
+      <c r="O76" s="473"/>
       <c r="R76"/>
       <c r="S76"/>
     </row>
     <row r="77" spans="1:19" ht="26">
-      <c r="A77" s="433"/>
-      <c r="B77" s="434"/>
+      <c r="A77" s="434"/>
+      <c r="B77" s="436"/>
       <c r="C77" s="129"/>
       <c r="D77" s="130"/>
       <c r="E77" s="130"/>
@@ -13115,17 +13168,17 @@
       <c r="L77" s="130">
         <v>5</v>
       </c>
-      <c r="M77" s="469"/>
-      <c r="N77" s="470"/>
-      <c r="O77" s="471"/>
+      <c r="M77" s="471"/>
+      <c r="N77" s="472"/>
+      <c r="O77" s="473"/>
       <c r="R77"/>
       <c r="S77"/>
     </row>
     <row r="78" spans="1:19">
-      <c r="A78" s="433">
+      <c r="A78" s="434">
         <v>3</v>
       </c>
-      <c r="B78" s="434" t="s">
+      <c r="B78" s="436" t="s">
         <v>155</v>
       </c>
       <c r="C78" s="132" t="s">
@@ -13151,15 +13204,15 @@
       <c r="L78" s="136">
         <v>22.5</v>
       </c>
-      <c r="M78" s="466"/>
-      <c r="N78" s="467"/>
-      <c r="O78" s="468"/>
+      <c r="M78" s="474"/>
+      <c r="N78" s="475"/>
+      <c r="O78" s="476"/>
       <c r="R78"/>
       <c r="S78"/>
     </row>
     <row r="79" spans="1:19" ht="26">
-      <c r="A79" s="433"/>
-      <c r="B79" s="434"/>
+      <c r="A79" s="434"/>
+      <c r="B79" s="436"/>
       <c r="C79" s="132" t="s">
         <v>119</v>
       </c>
@@ -13174,9 +13227,9 @@
       <c r="J79" s="137"/>
       <c r="K79" s="142"/>
       <c r="L79" s="61"/>
-      <c r="M79" s="469"/>
-      <c r="N79" s="470"/>
-      <c r="O79" s="471"/>
+      <c r="M79" s="471"/>
+      <c r="N79" s="472"/>
+      <c r="O79" s="473"/>
       <c r="R79"/>
       <c r="S79"/>
     </row>
@@ -13209,9 +13262,9 @@
         <f>SUM(L75:L79)</f>
         <v>55.5</v>
       </c>
-      <c r="M80" s="472"/>
-      <c r="N80" s="473"/>
-      <c r="O80" s="474"/>
+      <c r="M80" s="477"/>
+      <c r="N80" s="478"/>
+      <c r="O80" s="479"/>
       <c r="R80"/>
       <c r="S80"/>
     </row>
@@ -13279,16 +13332,16 @@
       <c r="S83"/>
     </row>
     <row r="84" spans="1:19" ht="57" thickBot="1">
-      <c r="A84" s="414"/>
-      <c r="B84" s="420"/>
-      <c r="C84" s="420"/>
-      <c r="D84" s="420"/>
-      <c r="E84" s="420"/>
-      <c r="F84" s="415"/>
+      <c r="A84" s="443"/>
+      <c r="B84" s="444"/>
+      <c r="C84" s="444"/>
+      <c r="D84" s="444"/>
+      <c r="E84" s="444"/>
+      <c r="F84" s="445"/>
       <c r="G84" s="232" t="s">
         <v>189</v>
       </c>
-      <c r="H84" s="431" t="s">
+      <c r="H84" s="449" t="s">
         <v>191</v>
       </c>
       <c r="I84" s="237"/>
@@ -13296,55 +13349,55 @@
       <c r="K84" s="232" t="s">
         <v>192</v>
       </c>
-      <c r="L84" s="431" t="s">
+      <c r="L84" s="449" t="s">
         <v>6</v>
       </c>
       <c r="M84" s="232" t="s">
         <v>194</v>
       </c>
-      <c r="N84" s="431" t="s">
+      <c r="N84" s="449" t="s">
         <v>195</v>
       </c>
       <c r="R84"/>
       <c r="S84"/>
     </row>
     <row r="85" spans="1:19" ht="29" thickBot="1">
-      <c r="A85" s="428" t="s">
+      <c r="A85" s="446" t="s">
         <v>188</v>
       </c>
-      <c r="B85" s="429"/>
-      <c r="C85" s="429"/>
-      <c r="D85" s="429"/>
-      <c r="E85" s="429"/>
-      <c r="F85" s="430"/>
+      <c r="B85" s="447"/>
+      <c r="C85" s="447"/>
+      <c r="D85" s="447"/>
+      <c r="E85" s="447"/>
+      <c r="F85" s="448"/>
       <c r="G85" s="234" t="s">
         <v>190</v>
       </c>
-      <c r="H85" s="432"/>
+      <c r="H85" s="450"/>
       <c r="I85" s="237"/>
       <c r="J85" s="237"/>
       <c r="K85" s="234" t="s">
         <v>193</v>
       </c>
-      <c r="L85" s="432"/>
+      <c r="L85" s="450"/>
       <c r="M85" s="234" t="s">
         <v>193</v>
       </c>
-      <c r="N85" s="432"/>
+      <c r="N85" s="450"/>
       <c r="R85"/>
       <c r="S85"/>
     </row>
     <row r="86" spans="1:19" ht="15" thickBot="1">
-      <c r="A86" s="414" t="s">
+      <c r="A86" s="443" t="s">
         <v>196</v>
       </c>
-      <c r="B86" s="415"/>
-      <c r="C86" s="412" t="s">
+      <c r="B86" s="445"/>
+      <c r="C86" s="455" t="s">
         <v>197</v>
       </c>
-      <c r="D86" s="413"/>
-      <c r="E86" s="413"/>
-      <c r="F86" s="411"/>
+      <c r="D86" s="456"/>
+      <c r="E86" s="456"/>
+      <c r="F86" s="457"/>
       <c r="G86" s="234">
         <v>7</v>
       </c>
@@ -13369,16 +13422,16 @@
       <c r="S86"/>
     </row>
     <row r="87" spans="1:19" ht="15" thickBot="1">
-      <c r="A87" s="416"/>
-      <c r="B87" s="417"/>
-      <c r="C87" s="414" t="s">
+      <c r="A87" s="451"/>
+      <c r="B87" s="452"/>
+      <c r="C87" s="443" t="s">
         <v>198</v>
       </c>
-      <c r="D87" s="415"/>
-      <c r="E87" s="412" t="s">
+      <c r="D87" s="445"/>
+      <c r="E87" s="455" t="s">
         <v>199</v>
       </c>
-      <c r="F87" s="411"/>
+      <c r="F87" s="457"/>
       <c r="G87" s="241">
         <f>SUM(H10+H11+H12+H9+H20+H21+H19+H25+H26+H44+H45)</f>
         <v>11</v>
@@ -13406,14 +13459,14 @@
       <c r="S87"/>
     </row>
     <row r="88" spans="1:19" ht="15" thickBot="1">
-      <c r="A88" s="418"/>
-      <c r="B88" s="419"/>
-      <c r="C88" s="418"/>
-      <c r="D88" s="419"/>
-      <c r="E88" s="412" t="s">
+      <c r="A88" s="453"/>
+      <c r="B88" s="454"/>
+      <c r="C88" s="453"/>
+      <c r="D88" s="454"/>
+      <c r="E88" s="455" t="s">
         <v>200</v>
       </c>
-      <c r="F88" s="411"/>
+      <c r="F88" s="457"/>
       <c r="G88" s="241">
         <f>SUM(H17+H27+H28+H29+H34+H35+H40+H41+H42+H43+H50+H51)</f>
         <v>12</v>
@@ -13441,29 +13494,29 @@
       <c r="S88"/>
     </row>
     <row r="89" spans="1:19" ht="15" thickBot="1">
-      <c r="A89" s="414" t="s">
+      <c r="A89" s="443" t="s">
         <v>201</v>
       </c>
-      <c r="B89" s="415"/>
-      <c r="C89" s="412" t="s">
+      <c r="B89" s="445"/>
+      <c r="C89" s="455" t="s">
         <v>202</v>
       </c>
-      <c r="D89" s="413"/>
-      <c r="E89" s="413"/>
-      <c r="F89" s="411"/>
+      <c r="D89" s="456"/>
+      <c r="E89" s="456"/>
+      <c r="F89" s="457"/>
       <c r="G89" s="234">
         <f>Q68</f>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H89" s="234">
         <f>R68+S68</f>
-        <v>1509</v>
+        <v>1464</v>
       </c>
       <c r="I89" s="237"/>
       <c r="J89" s="237"/>
       <c r="K89" s="234">
         <f>H89/(L78*16+G68)</f>
-        <v>0.51962809917355368</v>
+        <v>0.50413223140495866</v>
       </c>
       <c r="L89" s="241">
         <f>N68</f>
@@ -13478,14 +13531,14 @@
       <c r="S89"/>
     </row>
     <row r="90" spans="1:19" ht="15" thickBot="1">
-      <c r="A90" s="416"/>
-      <c r="B90" s="417"/>
-      <c r="C90" s="412" t="s">
+      <c r="A90" s="451"/>
+      <c r="B90" s="452"/>
+      <c r="C90" s="455" t="s">
         <v>203</v>
       </c>
-      <c r="D90" s="413"/>
-      <c r="E90" s="413"/>
-      <c r="F90" s="411"/>
+      <c r="D90" s="456"/>
+      <c r="E90" s="456"/>
+      <c r="F90" s="457"/>
       <c r="G90" s="234">
         <v>7</v>
       </c>
@@ -13510,13 +13563,13 @@
       <c r="S90"/>
     </row>
     <row r="91" spans="1:19" ht="15" thickBot="1">
-      <c r="A91" s="416"/>
-      <c r="B91" s="417"/>
-      <c r="C91" s="412" t="s">
+      <c r="A91" s="451"/>
+      <c r="B91" s="452"/>
+      <c r="C91" s="455" t="s">
         <v>204</v>
       </c>
-      <c r="D91" s="413"/>
-      <c r="E91" s="411"/>
+      <c r="D91" s="456"/>
+      <c r="E91" s="457"/>
       <c r="F91" s="234" t="s">
         <v>205</v>
       </c>
@@ -13536,11 +13589,11 @@
       <c r="S91"/>
     </row>
     <row r="92" spans="1:19" ht="15" thickBot="1">
-      <c r="A92" s="416"/>
-      <c r="B92" s="417"/>
-      <c r="C92" s="414"/>
-      <c r="D92" s="420"/>
-      <c r="E92" s="415"/>
+      <c r="A92" s="451"/>
+      <c r="B92" s="452"/>
+      <c r="C92" s="443"/>
+      <c r="D92" s="444"/>
+      <c r="E92" s="445"/>
       <c r="F92" s="234" t="s">
         <v>207</v>
       </c>
@@ -13563,11 +13616,11 @@
       <c r="S92"/>
     </row>
     <row r="93" spans="1:19" ht="15" thickBot="1">
-      <c r="A93" s="416"/>
-      <c r="B93" s="417"/>
-      <c r="C93" s="416"/>
-      <c r="D93" s="421"/>
-      <c r="E93" s="417"/>
+      <c r="A93" s="451"/>
+      <c r="B93" s="452"/>
+      <c r="C93" s="451"/>
+      <c r="D93" s="458"/>
+      <c r="E93" s="452"/>
       <c r="F93" s="234" t="s">
         <v>208</v>
       </c>
@@ -13590,13 +13643,13 @@
       <c r="S93"/>
     </row>
     <row r="94" spans="1:19" ht="15" thickBot="1">
-      <c r="A94" s="416"/>
-      <c r="B94" s="417"/>
-      <c r="C94" s="416" t="s">
+      <c r="A94" s="451"/>
+      <c r="B94" s="452"/>
+      <c r="C94" s="451" t="s">
         <v>206</v>
       </c>
-      <c r="D94" s="421"/>
-      <c r="E94" s="417"/>
+      <c r="D94" s="458"/>
+      <c r="E94" s="452"/>
       <c r="F94" s="234" t="s">
         <v>209</v>
       </c>
@@ -13619,11 +13672,11 @@
       <c r="S94"/>
     </row>
     <row r="95" spans="1:19" ht="15" thickBot="1">
-      <c r="A95" s="416"/>
-      <c r="B95" s="417"/>
-      <c r="C95" s="422"/>
-      <c r="D95" s="423"/>
-      <c r="E95" s="424"/>
+      <c r="A95" s="451"/>
+      <c r="B95" s="452"/>
+      <c r="C95" s="459"/>
+      <c r="D95" s="460"/>
+      <c r="E95" s="461"/>
       <c r="F95" s="234" t="s">
         <v>210</v>
       </c>
@@ -13646,11 +13699,11 @@
       <c r="S95"/>
     </row>
     <row r="96" spans="1:19" ht="15" thickBot="1">
-      <c r="A96" s="416"/>
-      <c r="B96" s="417"/>
-      <c r="C96" s="422"/>
-      <c r="D96" s="423"/>
-      <c r="E96" s="424"/>
+      <c r="A96" s="451"/>
+      <c r="B96" s="452"/>
+      <c r="C96" s="459"/>
+      <c r="D96" s="460"/>
+      <c r="E96" s="461"/>
       <c r="F96" s="234" t="s">
         <v>211</v>
       </c>
@@ -13673,11 +13726,11 @@
       <c r="S96"/>
     </row>
     <row r="97" spans="1:19" ht="15" thickBot="1">
-      <c r="A97" s="416"/>
-      <c r="B97" s="417"/>
-      <c r="C97" s="425"/>
-      <c r="D97" s="426"/>
-      <c r="E97" s="427"/>
+      <c r="A97" s="451"/>
+      <c r="B97" s="452"/>
+      <c r="C97" s="462"/>
+      <c r="D97" s="463"/>
+      <c r="E97" s="464"/>
       <c r="F97" s="224" t="s">
         <v>212</v>
       </c>
@@ -13700,13 +13753,13 @@
       <c r="S97"/>
     </row>
     <row r="98" spans="1:19" ht="15" thickBot="1">
-      <c r="A98" s="418"/>
-      <c r="B98" s="419"/>
-      <c r="C98" s="412" t="s">
+      <c r="A98" s="453"/>
+      <c r="B98" s="454"/>
+      <c r="C98" s="455" t="s">
         <v>213</v>
       </c>
-      <c r="D98" s="413"/>
-      <c r="E98" s="411"/>
+      <c r="D98" s="456"/>
+      <c r="E98" s="457"/>
       <c r="F98" s="224"/>
       <c r="G98" s="234">
         <v>7</v>
@@ -13727,17 +13780,17 @@
       <c r="S98"/>
     </row>
     <row r="99" spans="1:19" ht="15" thickBot="1">
-      <c r="A99" s="412" t="s">
+      <c r="A99" s="455" t="s">
         <v>214</v>
       </c>
-      <c r="B99" s="413"/>
-      <c r="C99" s="413"/>
-      <c r="D99" s="413"/>
-      <c r="E99" s="413"/>
-      <c r="F99" s="411"/>
+      <c r="B99" s="456"/>
+      <c r="C99" s="456"/>
+      <c r="D99" s="456"/>
+      <c r="E99" s="456"/>
+      <c r="F99" s="457"/>
       <c r="G99" s="234">
         <f>SUM(G86:G98)</f>
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H99" s="234">
         <f>(L78*16+G68)</f>
@@ -13756,32 +13809,32 @@
       <c r="A100" s="233" t="s">
         <v>215</v>
       </c>
-      <c r="B100" s="410">
+      <c r="B100" s="465">
         <f>B80</f>
         <v>130</v>
       </c>
-      <c r="C100" s="411"/>
-      <c r="D100" s="412" t="s">
+      <c r="C100" s="457"/>
+      <c r="D100" s="455" t="s">
         <v>216</v>
       </c>
-      <c r="E100" s="413"/>
-      <c r="F100" s="411"/>
-      <c r="G100" s="410">
+      <c r="E100" s="456"/>
+      <c r="F100" s="457"/>
+      <c r="G100" s="465">
         <f>B80-L78-L75-L76-L77</f>
         <v>74.5</v>
       </c>
-      <c r="H100" s="411"/>
+      <c r="H100" s="457"/>
       <c r="I100" s="226"/>
       <c r="J100" s="226"/>
-      <c r="K100" s="412" t="s">
+      <c r="K100" s="455" t="s">
         <v>217</v>
       </c>
-      <c r="L100" s="411"/>
-      <c r="M100" s="410">
+      <c r="L100" s="457"/>
+      <c r="M100" s="465">
         <f>L80</f>
         <v>55.5</v>
       </c>
-      <c r="N100" s="411"/>
+      <c r="N100" s="457"/>
       <c r="R100"/>
       <c r="S100"/>
     </row>
@@ -13813,12 +13866,40 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="M100:N100"/>
-    <mergeCell ref="A99:F99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="D100:F100"/>
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="K100:L100"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="M78:O78"/>
+    <mergeCell ref="M79:O79"/>
+    <mergeCell ref="M80:O80"/>
+    <mergeCell ref="F74:L74"/>
+    <mergeCell ref="M74:O74"/>
+    <mergeCell ref="M75:O75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="M76:O76"/>
+    <mergeCell ref="M77:O77"/>
+    <mergeCell ref="C74:E74"/>
+    <mergeCell ref="A23:A31"/>
+    <mergeCell ref="A32:A38"/>
+    <mergeCell ref="A39:A47"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A58:A65"/>
+    <mergeCell ref="A13:A22"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="A4:A12"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="H84:H85"/>
+    <mergeCell ref="L84:L85"/>
+    <mergeCell ref="N84:N85"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="A86:B88"/>
+    <mergeCell ref="C86:F86"/>
+    <mergeCell ref="C87:D88"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="E88:F88"/>
     <mergeCell ref="A89:B98"/>
     <mergeCell ref="C89:F89"/>
     <mergeCell ref="C90:F90"/>
@@ -13830,40 +13911,12 @@
     <mergeCell ref="C96:E96"/>
     <mergeCell ref="C97:E97"/>
     <mergeCell ref="C98:E98"/>
-    <mergeCell ref="A86:B88"/>
-    <mergeCell ref="C86:F86"/>
-    <mergeCell ref="C87:D88"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="H84:H85"/>
-    <mergeCell ref="L84:L85"/>
-    <mergeCell ref="N84:N85"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="A13:A22"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="A4:A12"/>
-    <mergeCell ref="A23:A31"/>
-    <mergeCell ref="A32:A38"/>
-    <mergeCell ref="A39:A47"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A58:A65"/>
-    <mergeCell ref="F74:L74"/>
-    <mergeCell ref="M74:O74"/>
-    <mergeCell ref="M75:O75"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="M76:O76"/>
-    <mergeCell ref="M77:O77"/>
-    <mergeCell ref="C74:E74"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="M78:O78"/>
-    <mergeCell ref="M79:O79"/>
-    <mergeCell ref="M80:O80"/>
+    <mergeCell ref="M100:N100"/>
+    <mergeCell ref="A99:F99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="D100:F100"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="K100:L100"/>
   </mergeCells>
   <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/2016版培养方案教学计划表（网络编程、软件工程).xlsx
+++ b/2016版培养方案教学计划表（网络编程、软件工程).xlsx
@@ -4902,52 +4902,97 @@
     <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="32" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4974,143 +5019,98 @@
     <xf numFmtId="176" fontId="7" fillId="6" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="32" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="257">
@@ -5382,7 +5382,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_514" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_515" connectionId="6" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5390,7 +5390,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_515" connectionId="6" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_514" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5398,7 +5398,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_513" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_516" connectionId="4" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5406,7 +5406,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_516" connectionId="4" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_513" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5664,7 +5664,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5674,8 +5674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="U66" sqref="U66"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5698,53 +5698,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="21">
-      <c r="A1" s="410" t="s">
+      <c r="A1" s="456" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="410"/>
-      <c r="C1" s="410"/>
-      <c r="D1" s="410"/>
-      <c r="E1" s="410"/>
-      <c r="F1" s="410"/>
-      <c r="G1" s="410"/>
-      <c r="H1" s="410"/>
-      <c r="I1" s="410"/>
-      <c r="J1" s="410"/>
-      <c r="K1" s="410"/>
-      <c r="L1" s="410"/>
-      <c r="M1" s="410"/>
-      <c r="N1" s="410"/>
-      <c r="O1" s="410"/>
+      <c r="B1" s="456"/>
+      <c r="C1" s="456"/>
+      <c r="D1" s="456"/>
+      <c r="E1" s="456"/>
+      <c r="F1" s="456"/>
+      <c r="G1" s="456"/>
+      <c r="H1" s="456"/>
+      <c r="I1" s="456"/>
+      <c r="J1" s="456"/>
+      <c r="K1" s="456"/>
+      <c r="L1" s="456"/>
+      <c r="M1" s="456"/>
+      <c r="N1" s="456"/>
+      <c r="O1" s="456"/>
       <c r="R1"/>
       <c r="S1"/>
     </row>
     <row r="2" spans="1:19" ht="15">
-      <c r="A2" s="411" t="s">
+      <c r="A2" s="457" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="413" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="414"/>
-      <c r="D2" s="414"/>
-      <c r="E2" s="414"/>
-      <c r="F2" s="415"/>
+      <c r="B2" s="459" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="460"/>
+      <c r="D2" s="460"/>
+      <c r="E2" s="460"/>
+      <c r="F2" s="461"/>
       <c r="G2" s="248"/>
       <c r="H2" s="249"/>
       <c r="I2" s="249"/>
       <c r="J2" s="291"/>
-      <c r="K2" s="416" t="s">
+      <c r="K2" s="462" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="416"/>
-      <c r="M2" s="416"/>
-      <c r="N2" s="416"/>
-      <c r="O2" s="417"/>
+      <c r="L2" s="462"/>
+      <c r="M2" s="462"/>
+      <c r="N2" s="462"/>
+      <c r="O2" s="463"/>
       <c r="R2" s="239"/>
       <c r="S2" s="239"/>
     </row>
     <row r="3" spans="1:19" ht="16" thickBot="1">
-      <c r="A3" s="412"/>
+      <c r="A3" s="458"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -5801,7 +5801,7 @@
       </c>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="418" t="s">
+      <c r="A4" s="464" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="76">
@@ -5856,7 +5856,7 @@
       </c>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="419"/>
+      <c r="A5" s="465"/>
       <c r="B5" s="78">
         <v>310016</v>
       </c>
@@ -5908,7 +5908,7 @@
       <c r="S5" s="271"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="419"/>
+      <c r="A6" s="465"/>
       <c r="B6" s="86">
         <v>330001</v>
       </c>
@@ -5947,7 +5947,7 @@
       <c r="S6" s="284"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="419"/>
+      <c r="A7" s="465"/>
       <c r="B7" s="86">
         <v>199023</v>
       </c>
@@ -5986,7 +5986,7 @@
       <c r="S7" s="284"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="419"/>
+      <c r="A8" s="465"/>
       <c r="B8" s="86">
         <v>310017</v>
       </c>
@@ -6025,7 +6025,7 @@
       <c r="S8" s="284"/>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" s="419"/>
+      <c r="A9" s="465"/>
       <c r="B9" s="75">
         <v>1901000</v>
       </c>
@@ -6066,7 +6066,7 @@
       <c r="S9" s="263"/>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="419"/>
+      <c r="A10" s="465"/>
       <c r="B10" s="75">
         <v>1900101</v>
       </c>
@@ -6105,7 +6105,7 @@
       <c r="S10" s="263"/>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="419"/>
+      <c r="A11" s="465"/>
       <c r="B11" s="75"/>
       <c r="C11" s="15" t="s">
         <v>20</v>
@@ -6138,7 +6138,7 @@
       <c r="S11" s="263"/>
     </row>
     <row r="12" spans="1:19" ht="15" thickBot="1">
-      <c r="A12" s="419"/>
+      <c r="A12" s="465"/>
       <c r="B12" s="81">
         <v>1901001</v>
       </c>
@@ -6181,7 +6181,7 @@
       <c r="S12" s="263"/>
     </row>
     <row r="13" spans="1:19" ht="16">
-      <c r="A13" s="420" t="s">
+      <c r="A13" s="450" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="5">
@@ -6235,7 +6235,7 @@
       </c>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="421"/>
+      <c r="A14" s="451"/>
       <c r="B14" s="7">
         <v>310009</v>
       </c>
@@ -6289,7 +6289,7 @@
       <c r="S14" s="271"/>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="421"/>
+      <c r="A15" s="451"/>
       <c r="B15" s="7">
         <v>310013</v>
       </c>
@@ -6343,7 +6343,7 @@
       </c>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="421"/>
+      <c r="A16" s="451"/>
       <c r="B16" s="126">
         <v>1900102</v>
       </c>
@@ -6393,7 +6393,7 @@
       <c r="S16" s="196"/>
     </row>
     <row r="17" spans="1:19">
-      <c r="A17" s="421"/>
+      <c r="A17" s="451"/>
       <c r="B17" s="280">
         <v>1901003</v>
       </c>
@@ -6446,7 +6446,7 @@
       <c r="S17" s="263"/>
     </row>
     <row r="18" spans="1:19">
-      <c r="A18" s="421"/>
+      <c r="A18" s="451"/>
       <c r="B18" s="272">
         <v>1905045</v>
       </c>
@@ -6501,7 +6501,7 @@
       <c r="S18" s="263"/>
     </row>
     <row r="19" spans="1:19">
-      <c r="A19" s="421"/>
+      <c r="A19" s="451"/>
       <c r="B19" s="182" t="s">
         <v>124</v>
       </c>
@@ -6552,7 +6552,7 @@
       <c r="S19" s="263"/>
     </row>
     <row r="20" spans="1:19">
-      <c r="A20" s="421"/>
+      <c r="A20" s="451"/>
       <c r="B20" s="182"/>
       <c r="C20" s="182"/>
       <c r="D20" s="183"/>
@@ -6579,7 +6579,7 @@
       <c r="S20" s="263"/>
     </row>
     <row r="21" spans="1:19" ht="15" thickBot="1">
-      <c r="A21" s="422"/>
+      <c r="A21" s="452"/>
       <c r="B21" s="23"/>
       <c r="C21" s="147" t="s">
         <v>125</v>
@@ -6625,7 +6625,7 @@
       </c>
     </row>
     <row r="22" spans="1:19">
-      <c r="A22" s="423" t="s">
+      <c r="A22" s="453" t="s">
         <v>28</v>
       </c>
       <c r="B22" s="76">
@@ -6680,7 +6680,7 @@
       <c r="S22" s="271"/>
     </row>
     <row r="23" spans="1:19">
-      <c r="A23" s="424"/>
+      <c r="A23" s="454"/>
       <c r="B23" s="78">
         <v>310015</v>
       </c>
@@ -6732,7 +6732,7 @@
       <c r="S23" s="271"/>
     </row>
     <row r="24" spans="1:19">
-      <c r="A24" s="424"/>
+      <c r="A24" s="454"/>
       <c r="B24" s="75">
         <v>1905007</v>
       </c>
@@ -6786,7 +6786,7 @@
       </c>
     </row>
     <row r="25" spans="1:19">
-      <c r="A25" s="424"/>
+      <c r="A25" s="454"/>
       <c r="B25" s="165">
         <v>1905008</v>
       </c>
@@ -6839,7 +6839,7 @@
       <c r="S25" s="263"/>
     </row>
     <row r="26" spans="1:19">
-      <c r="A26" s="424"/>
+      <c r="A26" s="454"/>
       <c r="B26" s="75">
         <v>1901006</v>
       </c>
@@ -6890,7 +6890,7 @@
       <c r="S26" s="263"/>
     </row>
     <row r="27" spans="1:19">
-      <c r="A27" s="424"/>
+      <c r="A27" s="454"/>
       <c r="B27" s="75">
         <v>1901007</v>
       </c>
@@ -6945,7 +6945,7 @@
       <c r="S27" s="263"/>
     </row>
     <row r="28" spans="1:19">
-      <c r="A28" s="424"/>
+      <c r="A28" s="454"/>
       <c r="B28" s="80">
         <v>1901028</v>
       </c>
@@ -7000,7 +7000,7 @@
       <c r="S28" s="263"/>
     </row>
     <row r="29" spans="1:19" ht="15" thickBot="1">
-      <c r="A29" s="425"/>
+      <c r="A29" s="455"/>
       <c r="B29" s="81"/>
       <c r="C29" s="117" t="s">
         <v>32</v>
@@ -7047,7 +7047,7 @@
       </c>
     </row>
     <row r="30" spans="1:19">
-      <c r="A30" s="423" t="s">
+      <c r="A30" s="453" t="s">
         <v>33</v>
       </c>
       <c r="B30" s="76">
@@ -7102,7 +7102,7 @@
       <c r="S30" s="271"/>
     </row>
     <row r="31" spans="1:19">
-      <c r="A31" s="424"/>
+      <c r="A31" s="454"/>
       <c r="B31" s="78">
         <v>3100014</v>
       </c>
@@ -7156,7 +7156,7 @@
       <c r="S31" s="271"/>
     </row>
     <row r="32" spans="1:19">
-      <c r="A32" s="424"/>
+      <c r="A32" s="454"/>
       <c r="B32" s="80">
         <v>1905035</v>
       </c>
@@ -7211,7 +7211,7 @@
       <c r="S32" s="263"/>
     </row>
     <row r="33" spans="1:19">
-      <c r="A33" s="424"/>
+      <c r="A33" s="454"/>
       <c r="B33" s="80">
         <v>1905036</v>
       </c>
@@ -7262,7 +7262,7 @@
       <c r="S33" s="263"/>
     </row>
     <row r="34" spans="1:19">
-      <c r="A34" s="424"/>
+      <c r="A34" s="454"/>
       <c r="B34" s="169"/>
       <c r="C34" s="170"/>
       <c r="D34" s="171"/>
@@ -7303,7 +7303,7 @@
       <c r="S34" s="263"/>
     </row>
     <row r="35" spans="1:19">
-      <c r="A35" s="424"/>
+      <c r="A35" s="454"/>
       <c r="B35" s="169"/>
       <c r="C35" s="170"/>
       <c r="D35" s="171"/>
@@ -7340,7 +7340,7 @@
       <c r="S35" s="263"/>
     </row>
     <row r="36" spans="1:19" ht="15" thickBot="1">
-      <c r="A36" s="424"/>
+      <c r="A36" s="454"/>
       <c r="B36" s="199"/>
       <c r="C36" s="254" t="s">
         <v>36</v>
@@ -7386,7 +7386,7 @@
       </c>
     </row>
     <row r="37" spans="1:19">
-      <c r="A37" s="420" t="s">
+      <c r="A37" s="450" t="s">
         <v>37</v>
       </c>
       <c r="B37" s="175">
@@ -7439,7 +7439,7 @@
       <c r="S37" s="271"/>
     </row>
     <row r="38" spans="1:19">
-      <c r="A38" s="421"/>
+      <c r="A38" s="451"/>
       <c r="B38" s="261">
         <v>1905046</v>
       </c>
@@ -7493,7 +7493,7 @@
       </c>
     </row>
     <row r="39" spans="1:19">
-      <c r="A39" s="421"/>
+      <c r="A39" s="451"/>
       <c r="B39" s="261">
         <v>1905047</v>
       </c>
@@ -7547,7 +7547,7 @@
       </c>
     </row>
     <row r="40" spans="1:19">
-      <c r="A40" s="421"/>
+      <c r="A40" s="451"/>
       <c r="B40" s="261">
         <v>1901015</v>
       </c>
@@ -7602,7 +7602,7 @@
       <c r="S40" s="263"/>
     </row>
     <row r="41" spans="1:19">
-      <c r="A41" s="421"/>
+      <c r="A41" s="451"/>
       <c r="B41" s="261">
         <v>1901016</v>
       </c>
@@ -7657,7 +7657,7 @@
       </c>
     </row>
     <row r="42" spans="1:19">
-      <c r="A42" s="421"/>
+      <c r="A42" s="451"/>
       <c r="B42" s="261">
         <v>1901013</v>
       </c>
@@ -7706,7 +7706,7 @@
       <c r="S42" s="263"/>
     </row>
     <row r="43" spans="1:19">
-      <c r="A43" s="421"/>
+      <c r="A43" s="451"/>
       <c r="B43" s="261">
         <v>1901014</v>
       </c>
@@ -7755,7 +7755,7 @@
       <c r="S43" s="263"/>
     </row>
     <row r="44" spans="1:19">
-      <c r="A44" s="421"/>
+      <c r="A44" s="451"/>
       <c r="B44" s="261"/>
       <c r="C44" s="28"/>
       <c r="D44" s="22"/>
@@ -7790,7 +7790,7 @@
       <c r="S44" s="263"/>
     </row>
     <row r="45" spans="1:19" ht="15" thickBot="1">
-      <c r="A45" s="422"/>
+      <c r="A45" s="452"/>
       <c r="B45" s="23"/>
       <c r="C45" s="117" t="s">
         <v>38</v>
@@ -7823,7 +7823,7 @@
       <c r="S45" s="263"/>
     </row>
     <row r="46" spans="1:19">
-      <c r="A46" s="420" t="s">
+      <c r="A46" s="450" t="s">
         <v>39</v>
       </c>
       <c r="B46" s="175">
@@ -7874,7 +7874,7 @@
       <c r="S46" s="271"/>
     </row>
     <row r="47" spans="1:19">
-      <c r="A47" s="421"/>
+      <c r="A47" s="451"/>
       <c r="B47" s="126">
         <v>1900103</v>
       </c>
@@ -7926,7 +7926,7 @@
       <c r="S47" s="271"/>
     </row>
     <row r="48" spans="1:19">
-      <c r="A48" s="421"/>
+      <c r="A48" s="451"/>
       <c r="B48" s="272">
         <v>1905083</v>
       </c>
@@ -8237,7 +8237,7 @@
       <c r="S55" s="263"/>
     </row>
     <row r="56" spans="1:19">
-      <c r="A56" s="420" t="s">
+      <c r="A56" s="450" t="s">
         <v>43</v>
       </c>
       <c r="B56" s="205">
@@ -8287,7 +8287,7 @@
       <c r="S56" s="271"/>
     </row>
     <row r="57" spans="1:19">
-      <c r="A57" s="421"/>
+      <c r="A57" s="451"/>
       <c r="B57" s="126">
         <v>1900105</v>
       </c>
@@ -8333,7 +8333,7 @@
       <c r="S57" s="271"/>
     </row>
     <row r="58" spans="1:19">
-      <c r="A58" s="421"/>
+      <c r="A58" s="451"/>
       <c r="B58" s="126">
         <v>1900107</v>
       </c>
@@ -8381,7 +8381,7 @@
       <c r="S58" s="271"/>
     </row>
     <row r="59" spans="1:19">
-      <c r="A59" s="421"/>
+      <c r="A59" s="451"/>
       <c r="B59" s="130"/>
       <c r="C59" s="129" t="s">
         <v>127</v>
@@ -8427,7 +8427,7 @@
       <c r="S59" s="271"/>
     </row>
     <row r="60" spans="1:19">
-      <c r="A60" s="421"/>
+      <c r="A60" s="451"/>
       <c r="B60" s="273"/>
       <c r="C60" s="18" t="s">
         <v>97</v>
@@ -8470,7 +8470,7 @@
       <c r="S60" s="164"/>
     </row>
     <row r="61" spans="1:19">
-      <c r="A61" s="421"/>
+      <c r="A61" s="451"/>
       <c r="B61" s="273"/>
       <c r="C61" s="18" t="s">
         <v>83</v>
@@ -8513,7 +8513,7 @@
       <c r="S61" s="164"/>
     </row>
     <row r="62" spans="1:19">
-      <c r="A62" s="421"/>
+      <c r="A62" s="451"/>
       <c r="B62" s="273"/>
       <c r="C62" s="18" t="s">
         <v>91</v>
@@ -8556,7 +8556,7 @@
       <c r="S62" s="164"/>
     </row>
     <row r="63" spans="1:19" ht="15" thickBot="1">
-      <c r="A63" s="422"/>
+      <c r="A63" s="452"/>
       <c r="B63" s="23"/>
       <c r="C63" s="210"/>
       <c r="D63" s="30"/>
@@ -8856,10 +8856,7 @@
       <c r="A71" s="55"/>
       <c r="B71" s="56"/>
       <c r="C71" s="65"/>
-      <c r="D71" s="56">
-        <f>B78*0.6</f>
-        <v>75</v>
-      </c>
+      <c r="D71" s="56"/>
       <c r="E71" s="56"/>
       <c r="F71" s="56"/>
       <c r="G71" s="56"/>
@@ -8881,27 +8878,27 @@
         <v>48</v>
       </c>
       <c r="B72" s="120"/>
-      <c r="C72" s="426" t="str">
+      <c r="C72" s="441" t="str">
         <f>"必修部分（&lt;=60%,"&amp;B78*0.6&amp;"学分)"</f>
         <v>必修部分（&lt;=60%,75学分)</v>
       </c>
-      <c r="D72" s="427"/>
-      <c r="E72" s="428"/>
-      <c r="F72" s="426" t="str">
+      <c r="D72" s="442"/>
+      <c r="E72" s="443"/>
+      <c r="F72" s="441" t="str">
         <f>"选修部分（&gt;=40%,"&amp;B78*0.4&amp;"学分"</f>
         <v>选修部分（&gt;=40%,50学分</v>
       </c>
-      <c r="G72" s="427"/>
-      <c r="H72" s="427"/>
-      <c r="I72" s="427"/>
-      <c r="J72" s="427"/>
-      <c r="K72" s="427"/>
-      <c r="L72" s="428"/>
-      <c r="M72" s="429" t="s">
+      <c r="G72" s="442"/>
+      <c r="H72" s="442"/>
+      <c r="I72" s="442"/>
+      <c r="J72" s="442"/>
+      <c r="K72" s="442"/>
+      <c r="L72" s="443"/>
+      <c r="M72" s="444" t="s">
         <v>110</v>
       </c>
-      <c r="N72" s="429"/>
-      <c r="O72" s="430"/>
+      <c r="N72" s="444"/>
+      <c r="O72" s="445"/>
       <c r="R72"/>
       <c r="S72"/>
     </row>
@@ -8937,19 +8934,19 @@
       <c r="L73" s="125">
         <v>18</v>
       </c>
-      <c r="M73" s="431" t="s">
+      <c r="M73" s="446" t="s">
         <v>112</v>
       </c>
-      <c r="N73" s="432"/>
-      <c r="O73" s="433"/>
+      <c r="N73" s="447"/>
+      <c r="O73" s="448"/>
       <c r="R73" s="123"/>
       <c r="S73" s="123"/>
     </row>
     <row r="74" spans="1:19">
-      <c r="A74" s="434">
+      <c r="A74" s="433">
         <v>2</v>
       </c>
-      <c r="B74" s="435" t="s">
+      <c r="B74" s="449" t="s">
         <v>51</v>
       </c>
       <c r="C74" s="126"/>
@@ -8974,8 +8971,8 @@
       <c r="S74" s="127"/>
     </row>
     <row r="75" spans="1:19" ht="26">
-      <c r="A75" s="434"/>
-      <c r="B75" s="436"/>
+      <c r="A75" s="433"/>
+      <c r="B75" s="434"/>
       <c r="C75" s="129"/>
       <c r="D75" s="130"/>
       <c r="E75" s="130"/>
@@ -8997,10 +8994,10 @@
       <c r="S75" s="131"/>
     </row>
     <row r="76" spans="1:19" ht="32" customHeight="1">
-      <c r="A76" s="434">
+      <c r="A76" s="433">
         <v>3</v>
       </c>
-      <c r="B76" s="436" t="s">
+      <c r="B76" s="434" t="s">
         <v>113</v>
       </c>
       <c r="C76" s="132" t="s">
@@ -9023,15 +9020,15 @@
       <c r="L76" s="136">
         <v>26</v>
       </c>
-      <c r="M76" s="439"/>
-      <c r="N76" s="439"/>
-      <c r="O76" s="440"/>
+      <c r="M76" s="435"/>
+      <c r="N76" s="435"/>
+      <c r="O76" s="436"/>
       <c r="R76" s="135"/>
       <c r="S76" s="135"/>
     </row>
     <row r="77" spans="1:19" ht="26">
-      <c r="A77" s="434"/>
-      <c r="B77" s="436"/>
+      <c r="A77" s="433"/>
+      <c r="B77" s="434"/>
       <c r="C77" s="132" t="s">
         <v>119</v>
       </c>
@@ -9079,9 +9076,9 @@
         <f>SUM(L73:L77)</f>
         <v>59</v>
       </c>
-      <c r="M78" s="441"/>
-      <c r="N78" s="441"/>
-      <c r="O78" s="442"/>
+      <c r="M78" s="439"/>
+      <c r="N78" s="439"/>
+      <c r="O78" s="440"/>
       <c r="R78" s="238"/>
       <c r="S78" s="238"/>
     </row>
@@ -9151,16 +9148,16 @@
       <c r="S81"/>
     </row>
     <row r="82" spans="1:19" ht="39" customHeight="1">
-      <c r="A82" s="443"/>
-      <c r="B82" s="444"/>
-      <c r="C82" s="444"/>
-      <c r="D82" s="444"/>
-      <c r="E82" s="444"/>
-      <c r="F82" s="445"/>
+      <c r="A82" s="414"/>
+      <c r="B82" s="420"/>
+      <c r="C82" s="420"/>
+      <c r="D82" s="420"/>
+      <c r="E82" s="420"/>
+      <c r="F82" s="415"/>
       <c r="G82" s="222" t="s">
         <v>189</v>
       </c>
-      <c r="H82" s="449" t="s">
+      <c r="H82" s="431" t="s">
         <v>191</v>
       </c>
       <c r="I82" s="236"/>
@@ -9168,13 +9165,13 @@
       <c r="K82" s="222" t="s">
         <v>192</v>
       </c>
-      <c r="L82" s="449" t="s">
+      <c r="L82" s="431" t="s">
         <v>6</v>
       </c>
       <c r="M82" s="222" t="s">
         <v>194</v>
       </c>
-      <c r="N82" s="449" t="s">
+      <c r="N82" s="431" t="s">
         <v>195</v>
       </c>
       <c r="O82" t="s">
@@ -9187,43 +9184,43 @@
       <c r="S82" s="236"/>
     </row>
     <row r="83" spans="1:19" ht="15" thickBot="1">
-      <c r="A83" s="446" t="s">
+      <c r="A83" s="428" t="s">
         <v>188</v>
       </c>
-      <c r="B83" s="447"/>
-      <c r="C83" s="447"/>
-      <c r="D83" s="447"/>
-      <c r="E83" s="447"/>
-      <c r="F83" s="448"/>
+      <c r="B83" s="429"/>
+      <c r="C83" s="429"/>
+      <c r="D83" s="429"/>
+      <c r="E83" s="429"/>
+      <c r="F83" s="430"/>
       <c r="G83" s="223" t="s">
         <v>190</v>
       </c>
-      <c r="H83" s="450"/>
+      <c r="H83" s="432"/>
       <c r="I83" s="237"/>
       <c r="J83" s="237"/>
       <c r="K83" s="223" t="s">
         <v>193</v>
       </c>
-      <c r="L83" s="450"/>
+      <c r="L83" s="432"/>
       <c r="M83" s="223" t="s">
         <v>193</v>
       </c>
-      <c r="N83" s="450"/>
+      <c r="N83" s="432"/>
       <c r="O83"/>
       <c r="R83" s="237"/>
       <c r="S83" s="237"/>
     </row>
     <row r="84" spans="1:19" ht="15" thickBot="1">
-      <c r="A84" s="443" t="s">
+      <c r="A84" s="414" t="s">
         <v>196</v>
       </c>
-      <c r="B84" s="445"/>
-      <c r="C84" s="455" t="s">
+      <c r="B84" s="415"/>
+      <c r="C84" s="412" t="s">
         <v>197</v>
       </c>
-      <c r="D84" s="456"/>
-      <c r="E84" s="456"/>
-      <c r="F84" s="457"/>
+      <c r="D84" s="413"/>
+      <c r="E84" s="413"/>
+      <c r="F84" s="411"/>
       <c r="G84" s="223">
         <v>7</v>
       </c>
@@ -9249,16 +9246,16 @@
       <c r="S84" s="237"/>
     </row>
     <row r="85" spans="1:19" ht="15" thickBot="1">
-      <c r="A85" s="451"/>
-      <c r="B85" s="452"/>
-      <c r="C85" s="443" t="s">
+      <c r="A85" s="416"/>
+      <c r="B85" s="417"/>
+      <c r="C85" s="414" t="s">
         <v>198</v>
       </c>
-      <c r="D85" s="445"/>
-      <c r="E85" s="455" t="s">
+      <c r="D85" s="415"/>
+      <c r="E85" s="412" t="s">
         <v>199</v>
       </c>
-      <c r="F85" s="457"/>
+      <c r="F85" s="411"/>
       <c r="G85" s="223">
         <f>SUM(H9+H10+H11+H12+H18+H24+H25+H42+H43)</f>
         <v>9</v>
@@ -9287,14 +9284,14 @@
       <c r="S85" s="237"/>
     </row>
     <row r="86" spans="1:19" ht="15" thickBot="1">
-      <c r="A86" s="453"/>
-      <c r="B86" s="454"/>
-      <c r="C86" s="453"/>
-      <c r="D86" s="454"/>
-      <c r="E86" s="455" t="s">
+      <c r="A86" s="418"/>
+      <c r="B86" s="419"/>
+      <c r="C86" s="418"/>
+      <c r="D86" s="419"/>
+      <c r="E86" s="412" t="s">
         <v>200</v>
       </c>
-      <c r="F86" s="457"/>
+      <c r="F86" s="411"/>
       <c r="G86" s="223">
         <f>SUM(H17+H26+H27+H28+H32+H33+H38+H39+H40+H41+H48+H49)</f>
         <v>12</v>
@@ -9323,16 +9320,16 @@
       <c r="S86" s="237"/>
     </row>
     <row r="87" spans="1:19" ht="15" thickBot="1">
-      <c r="A87" s="443" t="s">
+      <c r="A87" s="414" t="s">
         <v>201</v>
       </c>
-      <c r="B87" s="445"/>
-      <c r="C87" s="455" t="s">
+      <c r="B87" s="415"/>
+      <c r="C87" s="412" t="s">
         <v>202</v>
       </c>
-      <c r="D87" s="456"/>
-      <c r="E87" s="456"/>
-      <c r="F87" s="457"/>
+      <c r="D87" s="413"/>
+      <c r="E87" s="413"/>
+      <c r="F87" s="411"/>
       <c r="G87" s="223">
         <f>Q66</f>
         <v>28</v>
@@ -9361,14 +9358,14 @@
       <c r="S87" s="237"/>
     </row>
     <row r="88" spans="1:19" ht="15" thickBot="1">
-      <c r="A88" s="451"/>
-      <c r="B88" s="452"/>
-      <c r="C88" s="455" t="s">
+      <c r="A88" s="416"/>
+      <c r="B88" s="417"/>
+      <c r="C88" s="412" t="s">
         <v>203</v>
       </c>
-      <c r="D88" s="456"/>
-      <c r="E88" s="456"/>
-      <c r="F88" s="457"/>
+      <c r="D88" s="413"/>
+      <c r="E88" s="413"/>
+      <c r="F88" s="411"/>
       <c r="G88" s="223">
         <v>7</v>
       </c>
@@ -9394,13 +9391,13 @@
       <c r="S88" s="237"/>
     </row>
     <row r="89" spans="1:19" ht="15" thickBot="1">
-      <c r="A89" s="451"/>
-      <c r="B89" s="452"/>
-      <c r="C89" s="455" t="s">
+      <c r="A89" s="416"/>
+      <c r="B89" s="417"/>
+      <c r="C89" s="412" t="s">
         <v>204</v>
       </c>
-      <c r="D89" s="456"/>
-      <c r="E89" s="457"/>
+      <c r="D89" s="413"/>
+      <c r="E89" s="411"/>
       <c r="F89" s="223" t="s">
         <v>205</v>
       </c>
@@ -9421,11 +9418,11 @@
       <c r="S89" s="237"/>
     </row>
     <row r="90" spans="1:19" ht="15" thickBot="1">
-      <c r="A90" s="451"/>
-      <c r="B90" s="452"/>
-      <c r="C90" s="443"/>
-      <c r="D90" s="444"/>
-      <c r="E90" s="445"/>
+      <c r="A90" s="416"/>
+      <c r="B90" s="417"/>
+      <c r="C90" s="414"/>
+      <c r="D90" s="420"/>
+      <c r="E90" s="415"/>
       <c r="F90" s="223" t="s">
         <v>207</v>
       </c>
@@ -9449,11 +9446,11 @@
       <c r="S90" s="237"/>
     </row>
     <row r="91" spans="1:19" ht="15" thickBot="1">
-      <c r="A91" s="451"/>
-      <c r="B91" s="452"/>
-      <c r="C91" s="451"/>
-      <c r="D91" s="458"/>
-      <c r="E91" s="452"/>
+      <c r="A91" s="416"/>
+      <c r="B91" s="417"/>
+      <c r="C91" s="416"/>
+      <c r="D91" s="421"/>
+      <c r="E91" s="417"/>
       <c r="F91" s="223" t="s">
         <v>208</v>
       </c>
@@ -9477,13 +9474,13 @@
       <c r="S91" s="237"/>
     </row>
     <row r="92" spans="1:19" ht="15" thickBot="1">
-      <c r="A92" s="451"/>
-      <c r="B92" s="452"/>
-      <c r="C92" s="451" t="s">
+      <c r="A92" s="416"/>
+      <c r="B92" s="417"/>
+      <c r="C92" s="416" t="s">
         <v>206</v>
       </c>
-      <c r="D92" s="458"/>
-      <c r="E92" s="452"/>
+      <c r="D92" s="421"/>
+      <c r="E92" s="417"/>
       <c r="F92" s="223" t="s">
         <v>209</v>
       </c>
@@ -9507,11 +9504,11 @@
       <c r="S92" s="237"/>
     </row>
     <row r="93" spans="1:19" ht="15" thickBot="1">
-      <c r="A93" s="451"/>
-      <c r="B93" s="452"/>
-      <c r="C93" s="459"/>
-      <c r="D93" s="460"/>
-      <c r="E93" s="461"/>
+      <c r="A93" s="416"/>
+      <c r="B93" s="417"/>
+      <c r="C93" s="422"/>
+      <c r="D93" s="423"/>
+      <c r="E93" s="424"/>
       <c r="F93" s="223" t="s">
         <v>210</v>
       </c>
@@ -9535,11 +9532,11 @@
       <c r="S93" s="237"/>
     </row>
     <row r="94" spans="1:19" ht="15" thickBot="1">
-      <c r="A94" s="451"/>
-      <c r="B94" s="452"/>
-      <c r="C94" s="459"/>
-      <c r="D94" s="460"/>
-      <c r="E94" s="461"/>
+      <c r="A94" s="416"/>
+      <c r="B94" s="417"/>
+      <c r="C94" s="422"/>
+      <c r="D94" s="423"/>
+      <c r="E94" s="424"/>
       <c r="F94" s="223" t="s">
         <v>211</v>
       </c>
@@ -9563,11 +9560,11 @@
       <c r="S94" s="237"/>
     </row>
     <row r="95" spans="1:19" ht="15" thickBot="1">
-      <c r="A95" s="451"/>
-      <c r="B95" s="452"/>
-      <c r="C95" s="462"/>
-      <c r="D95" s="463"/>
-      <c r="E95" s="464"/>
+      <c r="A95" s="416"/>
+      <c r="B95" s="417"/>
+      <c r="C95" s="425"/>
+      <c r="D95" s="426"/>
+      <c r="E95" s="427"/>
       <c r="F95" s="224" t="s">
         <v>212</v>
       </c>
@@ -9591,13 +9588,13 @@
       <c r="S95" s="237"/>
     </row>
     <row r="96" spans="1:19" ht="15" thickBot="1">
-      <c r="A96" s="453"/>
-      <c r="B96" s="454"/>
-      <c r="C96" s="455" t="s">
+      <c r="A96" s="418"/>
+      <c r="B96" s="419"/>
+      <c r="C96" s="412" t="s">
         <v>213</v>
       </c>
-      <c r="D96" s="456"/>
-      <c r="E96" s="457"/>
+      <c r="D96" s="413"/>
+      <c r="E96" s="411"/>
       <c r="F96" s="224"/>
       <c r="G96" s="223">
         <v>7</v>
@@ -9619,14 +9616,14 @@
       <c r="S96" s="237"/>
     </row>
     <row r="97" spans="1:19" ht="15" thickBot="1">
-      <c r="A97" s="455" t="s">
+      <c r="A97" s="412" t="s">
         <v>214</v>
       </c>
-      <c r="B97" s="456"/>
-      <c r="C97" s="456"/>
-      <c r="D97" s="456"/>
-      <c r="E97" s="456"/>
-      <c r="F97" s="457"/>
+      <c r="B97" s="413"/>
+      <c r="C97" s="413"/>
+      <c r="D97" s="413"/>
+      <c r="E97" s="413"/>
+      <c r="F97" s="411"/>
       <c r="G97" s="223">
         <f>SUM(G84:G96)</f>
         <v>77</v>
@@ -9649,32 +9646,32 @@
       <c r="A98" s="225" t="s">
         <v>215</v>
       </c>
-      <c r="B98" s="465">
+      <c r="B98" s="410">
         <f>B78</f>
         <v>125</v>
       </c>
-      <c r="C98" s="457"/>
-      <c r="D98" s="455" t="s">
+      <c r="C98" s="411"/>
+      <c r="D98" s="412" t="s">
         <v>216</v>
       </c>
-      <c r="E98" s="456"/>
-      <c r="F98" s="457"/>
-      <c r="G98" s="465">
+      <c r="E98" s="413"/>
+      <c r="F98" s="411"/>
+      <c r="G98" s="410">
         <f>B78-L78</f>
         <v>66</v>
       </c>
-      <c r="H98" s="457"/>
+      <c r="H98" s="411"/>
       <c r="I98" s="235"/>
       <c r="J98" s="235"/>
-      <c r="K98" s="455" t="s">
+      <c r="K98" s="412" t="s">
         <v>217</v>
       </c>
-      <c r="L98" s="457"/>
-      <c r="M98" s="465">
+      <c r="L98" s="411"/>
+      <c r="M98" s="410">
         <f>L78</f>
         <v>59</v>
       </c>
-      <c r="N98" s="457"/>
+      <c r="N98" s="411"/>
       <c r="O98"/>
       <c r="R98" s="235"/>
       <c r="S98" s="235"/>
@@ -9720,12 +9717,40 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="M98:N98"/>
-    <mergeCell ref="A97:F97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="D98:F98"/>
-    <mergeCell ref="G98:H98"/>
-    <mergeCell ref="K98:L98"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="A4:A12"/>
+    <mergeCell ref="A56:A63"/>
+    <mergeCell ref="A13:A21"/>
+    <mergeCell ref="A22:A29"/>
+    <mergeCell ref="A30:A36"/>
+    <mergeCell ref="A37:A45"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="F72:L72"/>
+    <mergeCell ref="M72:O72"/>
+    <mergeCell ref="M73:O73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="M74:O74"/>
+    <mergeCell ref="M75:O75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="M76:O76"/>
+    <mergeCell ref="M77:O77"/>
+    <mergeCell ref="M78:O78"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="H82:H83"/>
+    <mergeCell ref="L82:L83"/>
+    <mergeCell ref="N82:N83"/>
+    <mergeCell ref="A84:B86"/>
+    <mergeCell ref="C84:F84"/>
+    <mergeCell ref="C85:D86"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="E86:F86"/>
     <mergeCell ref="A87:B96"/>
     <mergeCell ref="C87:F87"/>
     <mergeCell ref="C88:F88"/>
@@ -9737,40 +9762,12 @@
     <mergeCell ref="C94:E94"/>
     <mergeCell ref="C95:E95"/>
     <mergeCell ref="C96:E96"/>
-    <mergeCell ref="A84:B86"/>
-    <mergeCell ref="C84:F84"/>
-    <mergeCell ref="C85:D86"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="H82:H83"/>
-    <mergeCell ref="L82:L83"/>
-    <mergeCell ref="N82:N83"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="M76:O76"/>
-    <mergeCell ref="M77:O77"/>
-    <mergeCell ref="M78:O78"/>
-    <mergeCell ref="C72:E72"/>
-    <mergeCell ref="F72:L72"/>
-    <mergeCell ref="M72:O72"/>
-    <mergeCell ref="M73:O73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="M74:O74"/>
-    <mergeCell ref="M75:O75"/>
-    <mergeCell ref="A56:A63"/>
-    <mergeCell ref="A13:A21"/>
-    <mergeCell ref="A22:A29"/>
-    <mergeCell ref="A30:A36"/>
-    <mergeCell ref="A37:A45"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="A4:A12"/>
+    <mergeCell ref="M98:N98"/>
+    <mergeCell ref="A97:F97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="D98:F98"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="K98:L98"/>
   </mergeCells>
   <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9813,53 +9810,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="21">
-      <c r="A1" s="410" t="s">
+      <c r="A1" s="456" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="410"/>
-      <c r="C1" s="410"/>
-      <c r="D1" s="410"/>
-      <c r="E1" s="410"/>
-      <c r="F1" s="410"/>
-      <c r="G1" s="410"/>
-      <c r="H1" s="410"/>
-      <c r="I1" s="410"/>
-      <c r="J1" s="410"/>
-      <c r="K1" s="410"/>
-      <c r="L1" s="410"/>
-      <c r="M1" s="410"/>
-      <c r="N1" s="410"/>
-      <c r="O1" s="410"/>
+      <c r="B1" s="456"/>
+      <c r="C1" s="456"/>
+      <c r="D1" s="456"/>
+      <c r="E1" s="456"/>
+      <c r="F1" s="456"/>
+      <c r="G1" s="456"/>
+      <c r="H1" s="456"/>
+      <c r="I1" s="456"/>
+      <c r="J1" s="456"/>
+      <c r="K1" s="456"/>
+      <c r="L1" s="456"/>
+      <c r="M1" s="456"/>
+      <c r="N1" s="456"/>
+      <c r="O1" s="456"/>
       <c r="R1"/>
       <c r="S1"/>
     </row>
     <row r="2" spans="1:19" ht="15">
-      <c r="A2" s="411" t="s">
+      <c r="A2" s="457" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="413" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="414"/>
-      <c r="D2" s="414"/>
-      <c r="E2" s="414"/>
-      <c r="F2" s="415"/>
+      <c r="B2" s="459" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="460"/>
+      <c r="D2" s="460"/>
+      <c r="E2" s="460"/>
+      <c r="F2" s="461"/>
       <c r="G2" s="219"/>
       <c r="H2" s="219"/>
       <c r="I2" s="239"/>
       <c r="J2" s="239"/>
-      <c r="K2" s="466" t="s">
+      <c r="K2" s="478" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="416"/>
-      <c r="M2" s="416"/>
-      <c r="N2" s="416"/>
-      <c r="O2" s="467"/>
+      <c r="L2" s="462"/>
+      <c r="M2" s="462"/>
+      <c r="N2" s="462"/>
+      <c r="O2" s="479"/>
       <c r="R2" s="239"/>
       <c r="S2" s="239"/>
     </row>
     <row r="3" spans="1:19" ht="16" thickBot="1">
-      <c r="A3" s="412"/>
+      <c r="A3" s="458"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -9916,7 +9913,7 @@
       </c>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="418" t="s">
+      <c r="A4" s="464" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="76">
@@ -9971,7 +9968,7 @@
       </c>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="419"/>
+      <c r="A5" s="465"/>
       <c r="B5" s="78">
         <v>310016</v>
       </c>
@@ -10020,7 +10017,7 @@
       <c r="S5" s="85"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="419"/>
+      <c r="A6" s="465"/>
       <c r="B6" s="86">
         <v>330001</v>
       </c>
@@ -10069,7 +10066,7 @@
       <c r="S6" s="324"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="419"/>
+      <c r="A7" s="465"/>
       <c r="B7" s="86">
         <v>1900110</v>
       </c>
@@ -10108,7 +10105,7 @@
       <c r="S7" s="324"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="419"/>
+      <c r="A8" s="465"/>
       <c r="B8" s="86">
         <v>310017</v>
       </c>
@@ -10148,7 +10145,7 @@
       <c r="S8" s="324"/>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" s="419"/>
+      <c r="A9" s="465"/>
       <c r="B9" s="75">
         <v>199186</v>
       </c>
@@ -10191,7 +10188,7 @@
       <c r="S9" s="324"/>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="419"/>
+      <c r="A10" s="465"/>
       <c r="B10" s="75">
         <v>1900101</v>
       </c>
@@ -10230,7 +10227,7 @@
       <c r="S10" s="324"/>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="419"/>
+      <c r="A11" s="465"/>
       <c r="B11" s="75"/>
       <c r="C11" s="15" t="s">
         <v>20</v>
@@ -10265,7 +10262,7 @@
       <c r="S11" s="324"/>
     </row>
     <row r="12" spans="1:19" ht="15" thickBot="1">
-      <c r="A12" s="419"/>
+      <c r="A12" s="465"/>
       <c r="B12" s="81">
         <v>1901001</v>
       </c>
@@ -10312,7 +10309,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" ht="16">
-      <c r="A13" s="423" t="s">
+      <c r="A13" s="453" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="76">
@@ -10366,7 +10363,7 @@
       </c>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="424"/>
+      <c r="A14" s="454"/>
       <c r="B14" s="78">
         <v>310009</v>
       </c>
@@ -10420,7 +10417,7 @@
       <c r="S14" s="326"/>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="424"/>
+      <c r="A15" s="454"/>
       <c r="B15" s="78">
         <v>310013</v>
       </c>
@@ -10448,7 +10445,7 @@
       <c r="J15" s="311"/>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="424"/>
+      <c r="A16" s="454"/>
       <c r="B16" s="194">
         <v>1900102</v>
       </c>
@@ -10486,7 +10483,7 @@
       <c r="S16" s="328"/>
     </row>
     <row r="17" spans="1:19">
-      <c r="A17" s="424"/>
+      <c r="A17" s="454"/>
       <c r="B17" s="163">
         <v>1901003</v>
       </c>
@@ -10542,7 +10539,7 @@
       </c>
     </row>
     <row r="18" spans="1:19">
-      <c r="A18" s="424"/>
+      <c r="A18" s="454"/>
       <c r="B18" s="86">
         <v>1900111</v>
       </c>
@@ -10583,7 +10580,7 @@
       <c r="S18" s="263"/>
     </row>
     <row r="19" spans="1:19">
-      <c r="A19" s="424"/>
+      <c r="A19" s="454"/>
       <c r="B19" s="75">
         <v>1901002</v>
       </c>
@@ -10624,7 +10621,7 @@
       <c r="S19" s="263"/>
     </row>
     <row r="20" spans="1:19">
-      <c r="A20" s="424"/>
+      <c r="A20" s="454"/>
       <c r="B20" s="75">
         <v>1900112</v>
       </c>
@@ -10665,7 +10662,7 @@
       <c r="S20" s="263"/>
     </row>
     <row r="21" spans="1:19">
-      <c r="A21" s="424"/>
+      <c r="A21" s="454"/>
       <c r="B21" s="75">
         <v>1905045</v>
       </c>
@@ -10706,7 +10703,7 @@
       <c r="S21" s="263"/>
     </row>
     <row r="22" spans="1:19" ht="15" thickBot="1">
-      <c r="A22" s="425"/>
+      <c r="A22" s="455"/>
       <c r="B22" s="81"/>
       <c r="C22" s="147" t="s">
         <v>125</v>
@@ -10750,7 +10747,7 @@
       </c>
     </row>
     <row r="23" spans="1:19">
-      <c r="A23" s="423" t="s">
+      <c r="A23" s="453" t="s">
         <v>28</v>
       </c>
       <c r="B23" s="76">
@@ -10805,7 +10802,7 @@
       <c r="S23" s="332"/>
     </row>
     <row r="24" spans="1:19">
-      <c r="A24" s="424"/>
+      <c r="A24" s="454"/>
       <c r="B24" s="78">
         <v>310015</v>
       </c>
@@ -10857,7 +10854,7 @@
       <c r="S24" s="326"/>
     </row>
     <row r="25" spans="1:19">
-      <c r="A25" s="424"/>
+      <c r="A25" s="454"/>
       <c r="B25" s="75">
         <v>1901007</v>
       </c>
@@ -10911,7 +10908,7 @@
       </c>
     </row>
     <row r="26" spans="1:19">
-      <c r="A26" s="424"/>
+      <c r="A26" s="454"/>
       <c r="B26" s="165">
         <v>1901008</v>
       </c>
@@ -10966,7 +10963,7 @@
       <c r="S26" s="327"/>
     </row>
     <row r="27" spans="1:19">
-      <c r="A27" s="424"/>
+      <c r="A27" s="454"/>
       <c r="B27" s="75">
         <v>1901006</v>
       </c>
@@ -11020,7 +11017,7 @@
       </c>
     </row>
     <row r="28" spans="1:19">
-      <c r="A28" s="424"/>
+      <c r="A28" s="454"/>
       <c r="B28" s="75">
         <v>1901007</v>
       </c>
@@ -11077,7 +11074,7 @@
       </c>
     </row>
     <row r="29" spans="1:19" ht="15" thickBot="1">
-      <c r="A29" s="424"/>
+      <c r="A29" s="454"/>
       <c r="B29" s="335">
         <v>1902028</v>
       </c>
@@ -11132,7 +11129,7 @@
       <c r="S29" s="334"/>
     </row>
     <row r="30" spans="1:19">
-      <c r="A30" s="424"/>
+      <c r="A30" s="454"/>
       <c r="B30" s="402"/>
       <c r="C30" s="403"/>
       <c r="D30" s="404"/>
@@ -11170,7 +11167,7 @@
       </c>
     </row>
     <row r="31" spans="1:19" ht="15" thickBot="1">
-      <c r="A31" s="424"/>
+      <c r="A31" s="454"/>
       <c r="B31" s="81"/>
       <c r="C31" s="117" t="s">
         <v>32</v>
@@ -11191,7 +11188,7 @@
       <c r="J31" s="267"/>
     </row>
     <row r="32" spans="1:19">
-      <c r="A32" s="468" t="s">
+      <c r="A32" s="475" t="s">
         <v>33</v>
       </c>
       <c r="B32" s="76">
@@ -11244,7 +11241,7 @@
       <c r="S32" s="343"/>
     </row>
     <row r="33" spans="1:19">
-      <c r="A33" s="469"/>
+      <c r="A33" s="476"/>
       <c r="B33" s="78">
         <v>3100014</v>
       </c>
@@ -11298,7 +11295,7 @@
       <c r="S33" s="344"/>
     </row>
     <row r="34" spans="1:19">
-      <c r="A34" s="469"/>
+      <c r="A34" s="476"/>
       <c r="B34" s="80">
         <v>1905010</v>
       </c>
@@ -11358,7 +11355,7 @@
       </c>
     </row>
     <row r="35" spans="1:19">
-      <c r="A35" s="469"/>
+      <c r="A35" s="476"/>
       <c r="B35" s="80">
         <v>1905011</v>
       </c>
@@ -11410,7 +11407,7 @@
       <c r="S35" s="344"/>
     </row>
     <row r="36" spans="1:19">
-      <c r="A36" s="469"/>
+      <c r="A36" s="476"/>
       <c r="B36" s="169"/>
       <c r="C36" s="170"/>
       <c r="D36" s="171"/>
@@ -11451,7 +11448,7 @@
       <c r="S36" s="344"/>
     </row>
     <row r="37" spans="1:19">
-      <c r="A37" s="469"/>
+      <c r="A37" s="476"/>
       <c r="B37" s="169"/>
       <c r="C37" s="170"/>
       <c r="D37" s="171"/>
@@ -11480,7 +11477,7 @@
       <c r="S37" s="263"/>
     </row>
     <row r="38" spans="1:19" ht="15" thickBot="1">
-      <c r="A38" s="470"/>
+      <c r="A38" s="477"/>
       <c r="B38" s="81"/>
       <c r="C38" s="117" t="s">
         <v>36</v>
@@ -11524,7 +11521,7 @@
       </c>
     </row>
     <row r="39" spans="1:19">
-      <c r="A39" s="468" t="s">
+      <c r="A39" s="475" t="s">
         <v>37</v>
       </c>
       <c r="B39" s="173">
@@ -11578,7 +11575,7 @@
       <c r="S39" s="348"/>
     </row>
     <row r="40" spans="1:19">
-      <c r="A40" s="469"/>
+      <c r="A40" s="476"/>
       <c r="B40" s="177">
         <v>1905046</v>
       </c>
@@ -11636,7 +11633,7 @@
       </c>
     </row>
     <row r="41" spans="1:19">
-      <c r="A41" s="469"/>
+      <c r="A41" s="476"/>
       <c r="B41" s="177">
         <v>1905047</v>
       </c>
@@ -11694,7 +11691,7 @@
       </c>
     </row>
     <row r="42" spans="1:19">
-      <c r="A42" s="469"/>
+      <c r="A42" s="476"/>
       <c r="B42" s="177">
         <v>1901015</v>
       </c>
@@ -11746,7 +11743,7 @@
       </c>
     </row>
     <row r="43" spans="1:19">
-      <c r="A43" s="469"/>
+      <c r="A43" s="476"/>
       <c r="B43" s="177">
         <v>1901016</v>
       </c>
@@ -11798,7 +11795,7 @@
       <c r="S43" s="263"/>
     </row>
     <row r="44" spans="1:19">
-      <c r="A44" s="469"/>
+      <c r="A44" s="476"/>
       <c r="B44" s="177">
         <v>1901013</v>
       </c>
@@ -11850,7 +11847,7 @@
       </c>
     </row>
     <row r="45" spans="1:19">
-      <c r="A45" s="469"/>
+      <c r="A45" s="476"/>
       <c r="B45" s="177">
         <v>1901014</v>
       </c>
@@ -11898,7 +11895,7 @@
       <c r="S45" s="263"/>
     </row>
     <row r="46" spans="1:19">
-      <c r="A46" s="469"/>
+      <c r="A46" s="476"/>
       <c r="B46" s="177"/>
       <c r="C46" s="28"/>
       <c r="D46" s="22"/>
@@ -11932,7 +11929,7 @@
       <c r="S46" s="263"/>
     </row>
     <row r="47" spans="1:19" ht="15" thickBot="1">
-      <c r="A47" s="470"/>
+      <c r="A47" s="477"/>
       <c r="B47" s="81"/>
       <c r="C47" s="117" t="s">
         <v>38</v>
@@ -11963,7 +11960,7 @@
       <c r="S47" s="267"/>
     </row>
     <row r="48" spans="1:19">
-      <c r="A48" s="424" t="s">
+      <c r="A48" s="454" t="s">
         <v>39</v>
       </c>
       <c r="B48" s="173">
@@ -12014,7 +12011,7 @@
       <c r="S48" s="348"/>
     </row>
     <row r="49" spans="1:19">
-      <c r="A49" s="424"/>
+      <c r="A49" s="454"/>
       <c r="B49" s="194">
         <v>1900103</v>
       </c>
@@ -12069,7 +12066,7 @@
       <c r="S49" s="263"/>
     </row>
     <row r="50" spans="1:19">
-      <c r="A50" s="424"/>
+      <c r="A50" s="454"/>
       <c r="B50" s="80">
         <v>1905033</v>
       </c>
@@ -12416,7 +12413,7 @@
       <c r="S57" s="349"/>
     </row>
     <row r="58" spans="1:19">
-      <c r="A58" s="420" t="s">
+      <c r="A58" s="450" t="s">
         <v>43</v>
       </c>
       <c r="B58" s="205">
@@ -12465,7 +12462,7 @@
       <c r="S58" s="350"/>
     </row>
     <row r="59" spans="1:19">
-      <c r="A59" s="421"/>
+      <c r="A59" s="451"/>
       <c r="B59" s="126">
         <v>1900105</v>
       </c>
@@ -12517,7 +12514,7 @@
       <c r="S59" s="351"/>
     </row>
     <row r="60" spans="1:19">
-      <c r="A60" s="421"/>
+      <c r="A60" s="451"/>
       <c r="B60" s="126">
         <v>1900107</v>
       </c>
@@ -12564,7 +12561,7 @@
       <c r="S60" s="351"/>
     </row>
     <row r="61" spans="1:19">
-      <c r="A61" s="421"/>
+      <c r="A61" s="451"/>
       <c r="B61" s="130"/>
       <c r="C61" s="129" t="s">
         <v>127</v>
@@ -12609,7 +12606,7 @@
       <c r="S61" s="164"/>
     </row>
     <row r="62" spans="1:19">
-      <c r="A62" s="421"/>
+      <c r="A62" s="451"/>
       <c r="B62" s="373" t="s">
         <v>246</v>
       </c>
@@ -12655,7 +12652,7 @@
       <c r="S62" s="164"/>
     </row>
     <row r="63" spans="1:19">
-      <c r="A63" s="421"/>
+      <c r="A63" s="451"/>
       <c r="B63" s="273"/>
       <c r="C63" s="18" t="s">
         <v>83</v>
@@ -12690,7 +12687,7 @@
       <c r="S63" s="164"/>
     </row>
     <row r="64" spans="1:19">
-      <c r="A64" s="421"/>
+      <c r="A64" s="451"/>
       <c r="B64" s="273"/>
       <c r="C64" s="18" t="s">
         <v>81</v>
@@ -12725,7 +12722,7 @@
       <c r="S64" s="164"/>
     </row>
     <row r="65" spans="1:19" ht="15" thickBot="1">
-      <c r="A65" s="422"/>
+      <c r="A65" s="452"/>
       <c r="B65" s="23"/>
       <c r="C65" s="210"/>
       <c r="D65" s="30"/>
@@ -13059,27 +13056,27 @@
         <v>48</v>
       </c>
       <c r="B74" s="144"/>
-      <c r="C74" s="426" t="str">
+      <c r="C74" s="441" t="str">
         <f>"必修部分（&lt;=60%,"&amp;B80*0.6&amp;"学分)"</f>
         <v>必修部分（&lt;=60%,78学分)</v>
       </c>
-      <c r="D74" s="427"/>
-      <c r="E74" s="428"/>
-      <c r="F74" s="426" t="str">
+      <c r="D74" s="442"/>
+      <c r="E74" s="443"/>
+      <c r="F74" s="441" t="str">
         <f>"选修部分（&gt;=40%,("&amp;B80*0.4&amp;"学分)"</f>
         <v>选修部分（&gt;=40%,(52学分)</v>
       </c>
-      <c r="G74" s="427"/>
-      <c r="H74" s="427"/>
-      <c r="I74" s="427"/>
-      <c r="J74" s="427"/>
-      <c r="K74" s="427"/>
-      <c r="L74" s="428"/>
-      <c r="M74" s="429" t="s">
+      <c r="G74" s="442"/>
+      <c r="H74" s="442"/>
+      <c r="I74" s="442"/>
+      <c r="J74" s="442"/>
+      <c r="K74" s="442"/>
+      <c r="L74" s="443"/>
+      <c r="M74" s="444" t="s">
         <v>110</v>
       </c>
-      <c r="N74" s="429"/>
-      <c r="O74" s="430"/>
+      <c r="N74" s="444"/>
+      <c r="O74" s="445"/>
       <c r="R74"/>
       <c r="S74"/>
     </row>
@@ -13115,19 +13112,19 @@
       <c r="L75" s="125">
         <v>18</v>
       </c>
-      <c r="M75" s="431" t="s">
+      <c r="M75" s="446" t="s">
         <v>112</v>
       </c>
-      <c r="N75" s="432"/>
-      <c r="O75" s="433"/>
+      <c r="N75" s="447"/>
+      <c r="O75" s="448"/>
       <c r="R75"/>
       <c r="S75"/>
     </row>
     <row r="76" spans="1:19">
-      <c r="A76" s="434">
+      <c r="A76" s="433">
         <v>2</v>
       </c>
-      <c r="B76" s="435" t="s">
+      <c r="B76" s="449" t="s">
         <v>51</v>
       </c>
       <c r="C76" s="126"/>
@@ -13145,15 +13142,15 @@
         <f>SUM(E16+E49+E58+E59+E60+E66)</f>
         <v>10</v>
       </c>
-      <c r="M76" s="471"/>
-      <c r="N76" s="472"/>
-      <c r="O76" s="473"/>
+      <c r="M76" s="469"/>
+      <c r="N76" s="470"/>
+      <c r="O76" s="471"/>
       <c r="R76"/>
       <c r="S76"/>
     </row>
     <row r="77" spans="1:19" ht="26">
-      <c r="A77" s="434"/>
-      <c r="B77" s="436"/>
+      <c r="A77" s="433"/>
+      <c r="B77" s="434"/>
       <c r="C77" s="129"/>
       <c r="D77" s="130"/>
       <c r="E77" s="130"/>
@@ -13168,17 +13165,17 @@
       <c r="L77" s="130">
         <v>5</v>
       </c>
-      <c r="M77" s="471"/>
-      <c r="N77" s="472"/>
-      <c r="O77" s="473"/>
+      <c r="M77" s="469"/>
+      <c r="N77" s="470"/>
+      <c r="O77" s="471"/>
       <c r="R77"/>
       <c r="S77"/>
     </row>
     <row r="78" spans="1:19">
-      <c r="A78" s="434">
+      <c r="A78" s="433">
         <v>3</v>
       </c>
-      <c r="B78" s="436" t="s">
+      <c r="B78" s="434" t="s">
         <v>155</v>
       </c>
       <c r="C78" s="132" t="s">
@@ -13204,15 +13201,15 @@
       <c r="L78" s="136">
         <v>22.5</v>
       </c>
-      <c r="M78" s="474"/>
-      <c r="N78" s="475"/>
-      <c r="O78" s="476"/>
+      <c r="M78" s="466"/>
+      <c r="N78" s="467"/>
+      <c r="O78" s="468"/>
       <c r="R78"/>
       <c r="S78"/>
     </row>
     <row r="79" spans="1:19" ht="26">
-      <c r="A79" s="434"/>
-      <c r="B79" s="436"/>
+      <c r="A79" s="433"/>
+      <c r="B79" s="434"/>
       <c r="C79" s="132" t="s">
         <v>119</v>
       </c>
@@ -13227,9 +13224,9 @@
       <c r="J79" s="137"/>
       <c r="K79" s="142"/>
       <c r="L79" s="61"/>
-      <c r="M79" s="471"/>
-      <c r="N79" s="472"/>
-      <c r="O79" s="473"/>
+      <c r="M79" s="469"/>
+      <c r="N79" s="470"/>
+      <c r="O79" s="471"/>
       <c r="R79"/>
       <c r="S79"/>
     </row>
@@ -13262,9 +13259,9 @@
         <f>SUM(L75:L79)</f>
         <v>55.5</v>
       </c>
-      <c r="M80" s="477"/>
-      <c r="N80" s="478"/>
-      <c r="O80" s="479"/>
+      <c r="M80" s="472"/>
+      <c r="N80" s="473"/>
+      <c r="O80" s="474"/>
       <c r="R80"/>
       <c r="S80"/>
     </row>
@@ -13332,16 +13329,16 @@
       <c r="S83"/>
     </row>
     <row r="84" spans="1:19" ht="57" thickBot="1">
-      <c r="A84" s="443"/>
-      <c r="B84" s="444"/>
-      <c r="C84" s="444"/>
-      <c r="D84" s="444"/>
-      <c r="E84" s="444"/>
-      <c r="F84" s="445"/>
+      <c r="A84" s="414"/>
+      <c r="B84" s="420"/>
+      <c r="C84" s="420"/>
+      <c r="D84" s="420"/>
+      <c r="E84" s="420"/>
+      <c r="F84" s="415"/>
       <c r="G84" s="232" t="s">
         <v>189</v>
       </c>
-      <c r="H84" s="449" t="s">
+      <c r="H84" s="431" t="s">
         <v>191</v>
       </c>
       <c r="I84" s="237"/>
@@ -13349,55 +13346,55 @@
       <c r="K84" s="232" t="s">
         <v>192</v>
       </c>
-      <c r="L84" s="449" t="s">
+      <c r="L84" s="431" t="s">
         <v>6</v>
       </c>
       <c r="M84" s="232" t="s">
         <v>194</v>
       </c>
-      <c r="N84" s="449" t="s">
+      <c r="N84" s="431" t="s">
         <v>195</v>
       </c>
       <c r="R84"/>
       <c r="S84"/>
     </row>
     <row r="85" spans="1:19" ht="29" thickBot="1">
-      <c r="A85" s="446" t="s">
+      <c r="A85" s="428" t="s">
         <v>188</v>
       </c>
-      <c r="B85" s="447"/>
-      <c r="C85" s="447"/>
-      <c r="D85" s="447"/>
-      <c r="E85" s="447"/>
-      <c r="F85" s="448"/>
+      <c r="B85" s="429"/>
+      <c r="C85" s="429"/>
+      <c r="D85" s="429"/>
+      <c r="E85" s="429"/>
+      <c r="F85" s="430"/>
       <c r="G85" s="234" t="s">
         <v>190</v>
       </c>
-      <c r="H85" s="450"/>
+      <c r="H85" s="432"/>
       <c r="I85" s="237"/>
       <c r="J85" s="237"/>
       <c r="K85" s="234" t="s">
         <v>193</v>
       </c>
-      <c r="L85" s="450"/>
+      <c r="L85" s="432"/>
       <c r="M85" s="234" t="s">
         <v>193</v>
       </c>
-      <c r="N85" s="450"/>
+      <c r="N85" s="432"/>
       <c r="R85"/>
       <c r="S85"/>
     </row>
     <row r="86" spans="1:19" ht="15" thickBot="1">
-      <c r="A86" s="443" t="s">
+      <c r="A86" s="414" t="s">
         <v>196</v>
       </c>
-      <c r="B86" s="445"/>
-      <c r="C86" s="455" t="s">
+      <c r="B86" s="415"/>
+      <c r="C86" s="412" t="s">
         <v>197</v>
       </c>
-      <c r="D86" s="456"/>
-      <c r="E86" s="456"/>
-      <c r="F86" s="457"/>
+      <c r="D86" s="413"/>
+      <c r="E86" s="413"/>
+      <c r="F86" s="411"/>
       <c r="G86" s="234">
         <v>7</v>
       </c>
@@ -13422,16 +13419,16 @@
       <c r="S86"/>
     </row>
     <row r="87" spans="1:19" ht="15" thickBot="1">
-      <c r="A87" s="451"/>
-      <c r="B87" s="452"/>
-      <c r="C87" s="443" t="s">
+      <c r="A87" s="416"/>
+      <c r="B87" s="417"/>
+      <c r="C87" s="414" t="s">
         <v>198</v>
       </c>
-      <c r="D87" s="445"/>
-      <c r="E87" s="455" t="s">
+      <c r="D87" s="415"/>
+      <c r="E87" s="412" t="s">
         <v>199</v>
       </c>
-      <c r="F87" s="457"/>
+      <c r="F87" s="411"/>
       <c r="G87" s="241">
         <f>SUM(H10+H11+H12+H9+H20+H21+H19+H25+H26+H44+H45)</f>
         <v>11</v>
@@ -13459,14 +13456,14 @@
       <c r="S87"/>
     </row>
     <row r="88" spans="1:19" ht="15" thickBot="1">
-      <c r="A88" s="453"/>
-      <c r="B88" s="454"/>
-      <c r="C88" s="453"/>
-      <c r="D88" s="454"/>
-      <c r="E88" s="455" t="s">
+      <c r="A88" s="418"/>
+      <c r="B88" s="419"/>
+      <c r="C88" s="418"/>
+      <c r="D88" s="419"/>
+      <c r="E88" s="412" t="s">
         <v>200</v>
       </c>
-      <c r="F88" s="457"/>
+      <c r="F88" s="411"/>
       <c r="G88" s="241">
         <f>SUM(H17+H27+H28+H29+H34+H35+H40+H41+H42+H43+H50+H51)</f>
         <v>12</v>
@@ -13494,16 +13491,16 @@
       <c r="S88"/>
     </row>
     <row r="89" spans="1:19" ht="15" thickBot="1">
-      <c r="A89" s="443" t="s">
+      <c r="A89" s="414" t="s">
         <v>201</v>
       </c>
-      <c r="B89" s="445"/>
-      <c r="C89" s="455" t="s">
+      <c r="B89" s="415"/>
+      <c r="C89" s="412" t="s">
         <v>202</v>
       </c>
-      <c r="D89" s="456"/>
-      <c r="E89" s="456"/>
-      <c r="F89" s="457"/>
+      <c r="D89" s="413"/>
+      <c r="E89" s="413"/>
+      <c r="F89" s="411"/>
       <c r="G89" s="234">
         <f>Q68</f>
         <v>26</v>
@@ -13531,14 +13528,14 @@
       <c r="S89"/>
     </row>
     <row r="90" spans="1:19" ht="15" thickBot="1">
-      <c r="A90" s="451"/>
-      <c r="B90" s="452"/>
-      <c r="C90" s="455" t="s">
+      <c r="A90" s="416"/>
+      <c r="B90" s="417"/>
+      <c r="C90" s="412" t="s">
         <v>203</v>
       </c>
-      <c r="D90" s="456"/>
-      <c r="E90" s="456"/>
-      <c r="F90" s="457"/>
+      <c r="D90" s="413"/>
+      <c r="E90" s="413"/>
+      <c r="F90" s="411"/>
       <c r="G90" s="234">
         <v>7</v>
       </c>
@@ -13563,13 +13560,13 @@
       <c r="S90"/>
     </row>
     <row r="91" spans="1:19" ht="15" thickBot="1">
-      <c r="A91" s="451"/>
-      <c r="B91" s="452"/>
-      <c r="C91" s="455" t="s">
+      <c r="A91" s="416"/>
+      <c r="B91" s="417"/>
+      <c r="C91" s="412" t="s">
         <v>204</v>
       </c>
-      <c r="D91" s="456"/>
-      <c r="E91" s="457"/>
+      <c r="D91" s="413"/>
+      <c r="E91" s="411"/>
       <c r="F91" s="234" t="s">
         <v>205</v>
       </c>
@@ -13589,11 +13586,11 @@
       <c r="S91"/>
     </row>
     <row r="92" spans="1:19" ht="15" thickBot="1">
-      <c r="A92" s="451"/>
-      <c r="B92" s="452"/>
-      <c r="C92" s="443"/>
-      <c r="D92" s="444"/>
-      <c r="E92" s="445"/>
+      <c r="A92" s="416"/>
+      <c r="B92" s="417"/>
+      <c r="C92" s="414"/>
+      <c r="D92" s="420"/>
+      <c r="E92" s="415"/>
       <c r="F92" s="234" t="s">
         <v>207</v>
       </c>
@@ -13616,11 +13613,11 @@
       <c r="S92"/>
     </row>
     <row r="93" spans="1:19" ht="15" thickBot="1">
-      <c r="A93" s="451"/>
-      <c r="B93" s="452"/>
-      <c r="C93" s="451"/>
-      <c r="D93" s="458"/>
-      <c r="E93" s="452"/>
+      <c r="A93" s="416"/>
+      <c r="B93" s="417"/>
+      <c r="C93" s="416"/>
+      <c r="D93" s="421"/>
+      <c r="E93" s="417"/>
       <c r="F93" s="234" t="s">
         <v>208</v>
       </c>
@@ -13643,13 +13640,13 @@
       <c r="S93"/>
     </row>
     <row r="94" spans="1:19" ht="15" thickBot="1">
-      <c r="A94" s="451"/>
-      <c r="B94" s="452"/>
-      <c r="C94" s="451" t="s">
+      <c r="A94" s="416"/>
+      <c r="B94" s="417"/>
+      <c r="C94" s="416" t="s">
         <v>206</v>
       </c>
-      <c r="D94" s="458"/>
-      <c r="E94" s="452"/>
+      <c r="D94" s="421"/>
+      <c r="E94" s="417"/>
       <c r="F94" s="234" t="s">
         <v>209</v>
       </c>
@@ -13672,11 +13669,11 @@
       <c r="S94"/>
     </row>
     <row r="95" spans="1:19" ht="15" thickBot="1">
-      <c r="A95" s="451"/>
-      <c r="B95" s="452"/>
-      <c r="C95" s="459"/>
-      <c r="D95" s="460"/>
-      <c r="E95" s="461"/>
+      <c r="A95" s="416"/>
+      <c r="B95" s="417"/>
+      <c r="C95" s="422"/>
+      <c r="D95" s="423"/>
+      <c r="E95" s="424"/>
       <c r="F95" s="234" t="s">
         <v>210</v>
       </c>
@@ -13699,11 +13696,11 @@
       <c r="S95"/>
     </row>
     <row r="96" spans="1:19" ht="15" thickBot="1">
-      <c r="A96" s="451"/>
-      <c r="B96" s="452"/>
-      <c r="C96" s="459"/>
-      <c r="D96" s="460"/>
-      <c r="E96" s="461"/>
+      <c r="A96" s="416"/>
+      <c r="B96" s="417"/>
+      <c r="C96" s="422"/>
+      <c r="D96" s="423"/>
+      <c r="E96" s="424"/>
       <c r="F96" s="234" t="s">
         <v>211</v>
       </c>
@@ -13726,11 +13723,11 @@
       <c r="S96"/>
     </row>
     <row r="97" spans="1:19" ht="15" thickBot="1">
-      <c r="A97" s="451"/>
-      <c r="B97" s="452"/>
-      <c r="C97" s="462"/>
-      <c r="D97" s="463"/>
-      <c r="E97" s="464"/>
+      <c r="A97" s="416"/>
+      <c r="B97" s="417"/>
+      <c r="C97" s="425"/>
+      <c r="D97" s="426"/>
+      <c r="E97" s="427"/>
       <c r="F97" s="224" t="s">
         <v>212</v>
       </c>
@@ -13753,13 +13750,13 @@
       <c r="S97"/>
     </row>
     <row r="98" spans="1:19" ht="15" thickBot="1">
-      <c r="A98" s="453"/>
-      <c r="B98" s="454"/>
-      <c r="C98" s="455" t="s">
+      <c r="A98" s="418"/>
+      <c r="B98" s="419"/>
+      <c r="C98" s="412" t="s">
         <v>213</v>
       </c>
-      <c r="D98" s="456"/>
-      <c r="E98" s="457"/>
+      <c r="D98" s="413"/>
+      <c r="E98" s="411"/>
       <c r="F98" s="224"/>
       <c r="G98" s="234">
         <v>7</v>
@@ -13780,14 +13777,14 @@
       <c r="S98"/>
     </row>
     <row r="99" spans="1:19" ht="15" thickBot="1">
-      <c r="A99" s="455" t="s">
+      <c r="A99" s="412" t="s">
         <v>214</v>
       </c>
-      <c r="B99" s="456"/>
-      <c r="C99" s="456"/>
-      <c r="D99" s="456"/>
-      <c r="E99" s="456"/>
-      <c r="F99" s="457"/>
+      <c r="B99" s="413"/>
+      <c r="C99" s="413"/>
+      <c r="D99" s="413"/>
+      <c r="E99" s="413"/>
+      <c r="F99" s="411"/>
       <c r="G99" s="234">
         <f>SUM(G86:G98)</f>
         <v>77</v>
@@ -13809,32 +13806,32 @@
       <c r="A100" s="233" t="s">
         <v>215</v>
       </c>
-      <c r="B100" s="465">
+      <c r="B100" s="410">
         <f>B80</f>
         <v>130</v>
       </c>
-      <c r="C100" s="457"/>
-      <c r="D100" s="455" t="s">
+      <c r="C100" s="411"/>
+      <c r="D100" s="412" t="s">
         <v>216</v>
       </c>
-      <c r="E100" s="456"/>
-      <c r="F100" s="457"/>
-      <c r="G100" s="465">
+      <c r="E100" s="413"/>
+      <c r="F100" s="411"/>
+      <c r="G100" s="410">
         <f>B80-L78-L75-L76-L77</f>
         <v>74.5</v>
       </c>
-      <c r="H100" s="457"/>
+      <c r="H100" s="411"/>
       <c r="I100" s="226"/>
       <c r="J100" s="226"/>
-      <c r="K100" s="455" t="s">
+      <c r="K100" s="412" t="s">
         <v>217</v>
       </c>
-      <c r="L100" s="457"/>
-      <c r="M100" s="465">
+      <c r="L100" s="411"/>
+      <c r="M100" s="410">
         <f>L80</f>
         <v>55.5</v>
       </c>
-      <c r="N100" s="457"/>
+      <c r="N100" s="411"/>
       <c r="R100"/>
       <c r="S100"/>
     </row>
@@ -13866,40 +13863,12 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="M78:O78"/>
-    <mergeCell ref="M79:O79"/>
-    <mergeCell ref="M80:O80"/>
-    <mergeCell ref="F74:L74"/>
-    <mergeCell ref="M74:O74"/>
-    <mergeCell ref="M75:O75"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="M76:O76"/>
-    <mergeCell ref="M77:O77"/>
-    <mergeCell ref="C74:E74"/>
-    <mergeCell ref="A23:A31"/>
-    <mergeCell ref="A32:A38"/>
-    <mergeCell ref="A39:A47"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A58:A65"/>
-    <mergeCell ref="A13:A22"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="A4:A12"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="H84:H85"/>
-    <mergeCell ref="L84:L85"/>
-    <mergeCell ref="N84:N85"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="A86:B88"/>
-    <mergeCell ref="C86:F86"/>
-    <mergeCell ref="C87:D88"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="M100:N100"/>
+    <mergeCell ref="A99:F99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="D100:F100"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="K100:L100"/>
     <mergeCell ref="A89:B98"/>
     <mergeCell ref="C89:F89"/>
     <mergeCell ref="C90:F90"/>
@@ -13911,12 +13880,40 @@
     <mergeCell ref="C96:E96"/>
     <mergeCell ref="C97:E97"/>
     <mergeCell ref="C98:E98"/>
-    <mergeCell ref="M100:N100"/>
-    <mergeCell ref="A99:F99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="D100:F100"/>
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="K100:L100"/>
+    <mergeCell ref="A86:B88"/>
+    <mergeCell ref="C86:F86"/>
+    <mergeCell ref="C87:D88"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="H84:H85"/>
+    <mergeCell ref="L84:L85"/>
+    <mergeCell ref="N84:N85"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="A13:A22"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="A4:A12"/>
+    <mergeCell ref="A23:A31"/>
+    <mergeCell ref="A32:A38"/>
+    <mergeCell ref="A39:A47"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A58:A65"/>
+    <mergeCell ref="F74:L74"/>
+    <mergeCell ref="M74:O74"/>
+    <mergeCell ref="M75:O75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="M76:O76"/>
+    <mergeCell ref="M77:O77"/>
+    <mergeCell ref="C74:E74"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="M78:O78"/>
+    <mergeCell ref="M79:O79"/>
+    <mergeCell ref="M80:O80"/>
   </mergeCells>
   <phoneticPr fontId="2" type="halfwidthKatakana" alignment="noControl"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
